--- a/left_knee_Data_Variable.xlsx
+++ b/left_knee_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>314.1058959960938</v>
+        <v>394.1000671386719</v>
       </c>
       <c r="B2" t="n">
-        <v>320.6183471679688</v>
+        <v>398.3880004882812</v>
       </c>
       <c r="C2" t="n">
-        <v>324.5652465820312</v>
+        <v>401.2085266113281</v>
       </c>
       <c r="D2" t="n">
-        <v>327.5870361328125</v>
+        <v>405.5587768554688</v>
       </c>
       <c r="E2" t="n">
-        <v>327.1533508300781</v>
+        <v>411.7179565429688</v>
       </c>
       <c r="F2" t="n">
-        <v>324.5150146484375</v>
+        <v>417.7596435546875</v>
       </c>
       <c r="G2" t="n">
-        <v>326.8218994140625</v>
+        <v>424.52490234375</v>
       </c>
       <c r="H2" t="n">
-        <v>292.4452209472656</v>
+        <v>432.0303955078125</v>
       </c>
       <c r="I2" t="n">
-        <v>333.7944946289062</v>
+        <v>439.4346618652344</v>
       </c>
       <c r="J2" t="n">
-        <v>301.6660766601562</v>
+        <v>444.1869812011719</v>
       </c>
       <c r="K2" t="n">
-        <v>312.0355529785156</v>
+        <v>448.5088500976562</v>
       </c>
       <c r="L2" t="n">
-        <v>344.2912292480469</v>
+        <v>451.1959228515625</v>
       </c>
       <c r="M2" t="n">
-        <v>320.4899597167969</v>
+        <v>476.6585693359375</v>
       </c>
       <c r="N2" t="n">
-        <v>319.2328796386719</v>
+        <v>476.5304870605469</v>
       </c>
       <c r="O2" t="n">
-        <v>348.6646728515625</v>
+        <v>483.4012451171875</v>
       </c>
       <c r="P2" t="n">
-        <v>358.3498840332031</v>
+        <v>479.1160583496094</v>
       </c>
       <c r="Q2" t="n">
-        <v>354.897705078125</v>
+        <v>470.4421997070312</v>
       </c>
       <c r="R2" t="n">
-        <v>354.8804016113281</v>
+        <v>470.08251953125</v>
       </c>
       <c r="S2" t="n">
-        <v>357.2125854492188</v>
+        <v>469.4954223632812</v>
       </c>
       <c r="T2" t="n">
-        <v>356.0942993164062</v>
+        <v>467.4664001464844</v>
       </c>
       <c r="U2" t="n">
-        <v>355.5647277832031</v>
+        <v>464.7261962890625</v>
       </c>
       <c r="V2" t="n">
-        <v>354.3933715820312</v>
+        <v>462.5188598632812</v>
       </c>
       <c r="W2" t="n">
-        <v>353.3367309570312</v>
+        <v>453.6956176757812</v>
       </c>
       <c r="X2" t="n">
-        <v>352.3878173828125</v>
+        <v>458.559326171875</v>
       </c>
       <c r="Y2" t="n">
-        <v>350.8109130859375</v>
+        <v>453.6328125</v>
       </c>
       <c r="Z2" t="n">
-        <v>347.6018676757812</v>
+        <v>442.9159240722656</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.0321350097656</v>
+        <v>431.660400390625</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.3846435546875</v>
+        <v>436.6563110351562</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.0634765625</v>
+        <v>439.6885681152344</v>
       </c>
       <c r="AD2" t="n">
-        <v>342.9566650390625</v>
+        <v>422.6392822265625</v>
       </c>
       <c r="AE2" t="n">
-        <v>342.72802734375</v>
+        <v>420.7934265136719</v>
       </c>
       <c r="AF2" t="n">
-        <v>342.7075500488281</v>
+        <v>419.457763671875</v>
       </c>
       <c r="AG2" t="n">
-        <v>343.2974243164062</v>
+        <v>418.8420104980469</v>
       </c>
       <c r="AH2" t="n">
-        <v>343.7425231933594</v>
+        <v>418.5175170898438</v>
       </c>
       <c r="AI2" t="n">
-        <v>344.74365234375</v>
+        <v>427.5323791503906</v>
       </c>
       <c r="AJ2" t="n">
-        <v>349.8432006835938</v>
+        <v>426.5556335449219</v>
       </c>
       <c r="AK2" t="n">
-        <v>355.9338684082031</v>
+        <v>425.8591003417969</v>
       </c>
       <c r="AL2" t="n">
-        <v>359.0542602539062</v>
+        <v>423.5870666503906</v>
       </c>
       <c r="AM2" t="n">
-        <v>356.6525268554688</v>
+        <v>418.1185913085938</v>
       </c>
       <c r="AN2" t="n">
-        <v>350.9923706054688</v>
+        <v>415.2813110351562</v>
       </c>
       <c r="AO2" t="n">
-        <v>349.7241821289062</v>
+        <v>416.6787719726562</v>
       </c>
       <c r="AP2" t="n">
-        <v>349.1417236328125</v>
+        <v>416.9754638671875</v>
       </c>
       <c r="AQ2" t="n">
-        <v>348.9278564453125</v>
+        <v>417.0464782714844</v>
       </c>
       <c r="AR2" t="n">
-        <v>347.8538513183594</v>
+        <v>417.2368774414062</v>
       </c>
       <c r="AS2" t="n">
-        <v>346.6364135742188</v>
+        <v>417.3096313476562</v>
       </c>
       <c r="AT2" t="n">
-        <v>346.0460815429688</v>
+        <v>417.0527954101562</v>
       </c>
       <c r="AU2" t="n">
-        <v>346.1484069824219</v>
+        <v>416.8318176269531</v>
       </c>
       <c r="AV2" t="n">
-        <v>346.3793334960938</v>
+        <v>416.4979858398438</v>
       </c>
       <c r="AW2" t="n">
-        <v>348.2354125976562</v>
+        <v>416.3362121582031</v>
       </c>
       <c r="AX2" t="n">
-        <v>351.765625</v>
+        <v>416.1659545898438</v>
       </c>
       <c r="AY2" t="n">
-        <v>350.3629150390625</v>
+        <v>415.4138488769531</v>
       </c>
       <c r="AZ2" t="n">
-        <v>347.5119018554688</v>
+        <v>413.0551147460938</v>
       </c>
       <c r="BA2" t="n">
-        <v>346.6676025390625</v>
+        <v>408.692138671875</v>
       </c>
       <c r="BB2" t="n">
-        <v>346.194091796875</v>
+        <v>402.9880981445312</v>
       </c>
       <c r="BC2" t="n">
-        <v>346.2713623046875</v>
+        <v>399.7867431640625</v>
       </c>
       <c r="BD2" t="n">
-        <v>346.1010437011719</v>
+        <v>396.2945861816406</v>
       </c>
       <c r="BE2" t="n">
-        <v>346.5800476074219</v>
+        <v>395.4071655273438</v>
       </c>
       <c r="BF2" t="n">
-        <v>346.6064453125</v>
+        <v>393.6323852539062</v>
       </c>
       <c r="BG2" t="n">
-        <v>346.3961486816406</v>
+        <v>392.0261840820312</v>
       </c>
       <c r="BH2" t="n">
-        <v>346.0572509765625</v>
+        <v>390.48486328125</v>
       </c>
       <c r="BI2" t="n">
-        <v>345.376220703125</v>
+        <v>390.74365234375</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.5519409179688</v>
+        <v>390.865234375</v>
       </c>
       <c r="BK2" t="n">
-        <v>343.3867797851562</v>
+        <v>389.5150146484375</v>
       </c>
       <c r="BL2" t="n">
-        <v>341.61474609375</v>
+        <v>387.1142883300781</v>
       </c>
       <c r="BM2" t="n">
-        <v>340.052734375</v>
+        <v>380.8970947265625</v>
       </c>
       <c r="BN2" t="n">
-        <v>338.9457702636719</v>
+        <v>372.8247680664062</v>
       </c>
       <c r="BO2" t="n">
-        <v>336.4959106445312</v>
+        <v>362.416748046875</v>
       </c>
       <c r="BP2" t="n">
-        <v>333.2683715820312</v>
+        <v>362.2036437988281</v>
       </c>
       <c r="BQ2" t="n">
-        <v>330.8533935546875</v>
+        <v>360.8252563476562</v>
       </c>
       <c r="BR2" t="n">
-        <v>330.8683776855469</v>
+        <v>359.2620544433594</v>
       </c>
       <c r="BS2" t="n">
-        <v>330.0673828125</v>
+        <v>360.1804809570312</v>
       </c>
       <c r="BT2" t="n">
-        <v>328.7284851074219</v>
+        <v>361.1133117675781</v>
       </c>
       <c r="BU2" t="n">
-        <v>328.3673706054688</v>
+        <v>362.2002563476562</v>
       </c>
       <c r="BV2" t="n">
-        <v>325.873779296875</v>
+        <v>362.466552734375</v>
       </c>
       <c r="BW2" t="n">
-        <v>324.6564025878906</v>
+        <v>362.8229370117188</v>
       </c>
       <c r="BX2" t="n">
-        <v>325.9295349121094</v>
+        <v>362.7319946289062</v>
       </c>
       <c r="BY2" t="n">
-        <v>325.3453369140625</v>
+        <v>362.6126098632812</v>
       </c>
       <c r="BZ2" t="n">
-        <v>324.0888061523438</v>
+        <v>362.3428649902344</v>
       </c>
       <c r="CA2" t="n">
-        <v>323.754150390625</v>
+        <v>362.050048828125</v>
       </c>
       <c r="CB2" t="n">
-        <v>324.1402587890625</v>
+        <v>362.2162170410156</v>
       </c>
       <c r="CC2" t="n">
-        <v>318.0190124511719</v>
+        <v>363.1756286621094</v>
       </c>
       <c r="CD2" t="n">
-        <v>317.4828796386719</v>
+        <v>367.3230285644531</v>
       </c>
       <c r="CE2" t="n">
-        <v>318.5702819824219</v>
+        <v>384.1946411132812</v>
       </c>
       <c r="CF2" t="n">
-        <v>316.2654724121094</v>
+        <v>387.1228637695312</v>
       </c>
       <c r="CG2" t="n">
-        <v>323.1497802734375</v>
+        <v>389.1802978515625</v>
       </c>
       <c r="CH2" t="n">
-        <v>326.2227783203125</v>
+        <v>394.3410034179688</v>
       </c>
       <c r="CI2" t="n">
-        <v>325.4448852539062</v>
+        <v>401.9063110351562</v>
       </c>
       <c r="CJ2" t="n">
-        <v>324.0333557128906</v>
+        <v>402.580078125</v>
       </c>
       <c r="CK2" t="n">
-        <v>325.3776245117188</v>
+        <v>404.5299682617188</v>
       </c>
       <c r="CL2" t="n">
-        <v>324.8840026855469</v>
+        <v>404.6908264160156</v>
       </c>
       <c r="CM2" t="n">
-        <v>324.6527099609375</v>
+        <v>404.4843139648438</v>
       </c>
       <c r="CN2" t="n">
-        <v>324.5267333984375</v>
+        <v>404.468017578125</v>
       </c>
       <c r="CO2" t="n">
-        <v>324.5896911621094</v>
+        <v>405.1380615234375</v>
       </c>
       <c r="CP2" t="n">
-        <v>324.3364868164062</v>
+        <v>406.7242126464844</v>
       </c>
       <c r="CQ2" t="n">
-        <v>325.2467041015625</v>
+        <v>409.2363891601562</v>
       </c>
       <c r="CR2" t="n">
-        <v>325.8049926757812</v>
+        <v>414.353271484375</v>
       </c>
       <c r="CS2" t="n">
-        <v>326.611083984375</v>
+        <v>416.23095703125</v>
       </c>
       <c r="CT2" t="n">
-        <v>318.0999755859375</v>
+        <v>414.4440307617188</v>
       </c>
       <c r="CU2" t="n">
-        <v>323.7911376953125</v>
+        <v>413.3504028320312</v>
       </c>
       <c r="CV2" t="n">
-        <v>323.369384765625</v>
+        <v>411.56591796875</v>
       </c>
       <c r="CW2" t="n">
-        <v>326.2932739257812</v>
+        <v>408.5516967773438</v>
       </c>
       <c r="CX2" t="n">
-        <v>328.2272033691406</v>
+        <v>409.0475158691406</v>
       </c>
       <c r="CY2" t="n">
-        <v>337.268310546875</v>
+        <v>406.965576171875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>343.6702270507812</v>
+        <v>390.5807189941406</v>
       </c>
       <c r="DA2" t="n">
-        <v>344.8091125488281</v>
+        <v>384.7748107910156</v>
       </c>
       <c r="DB2" t="n">
-        <v>345.2264709472656</v>
+        <v>383.7101440429688</v>
       </c>
       <c r="DC2" t="n">
-        <v>347.5616760253906</v>
+        <v>382.0170288085938</v>
       </c>
       <c r="DD2" t="n">
-        <v>349.3988342285156</v>
+        <v>381.9014892578125</v>
       </c>
       <c r="DE2" t="n">
-        <v>346.27587890625</v>
+        <v>378.7525024414062</v>
       </c>
       <c r="DF2" t="n">
-        <v>344.936767578125</v>
+        <v>376.0330810546875</v>
       </c>
       <c r="DG2" t="n">
-        <v>344.9872436523438</v>
+        <v>376.37841796875</v>
       </c>
       <c r="DH2" t="n">
-        <v>333.386474609375</v>
+        <v>376.4131469726562</v>
       </c>
       <c r="DI2" t="n">
-        <v>339.7820434570312</v>
+        <v>376.10693359375</v>
       </c>
       <c r="DJ2" t="n">
-        <v>338.84228515625</v>
+        <v>375.2005004882812</v>
       </c>
       <c r="DK2" t="n">
-        <v>332.6018676757812</v>
+        <v>373.46337890625</v>
       </c>
       <c r="DL2" t="n">
-        <v>330.812744140625</v>
+        <v>372.1856689453125</v>
       </c>
       <c r="DM2" t="n">
-        <v>331.4142150878906</v>
+        <v>371.6723937988281</v>
       </c>
       <c r="DN2" t="n">
-        <v>330.8557739257812</v>
+        <v>370.7207946777344</v>
       </c>
       <c r="DO2" t="n">
-        <v>329.97216796875</v>
+        <v>368.7320556640625</v>
       </c>
       <c r="DP2" t="n">
-        <v>329.902099609375</v>
+        <v>365.19482421875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>330.0805053710938</v>
+        <v>361.6093139648438</v>
       </c>
       <c r="DR2" t="n">
-        <v>330.964599609375</v>
+        <v>361.4162902832031</v>
       </c>
       <c r="DS2" t="n">
-        <v>336.4462890625</v>
+        <v>361.2149658203125</v>
       </c>
       <c r="DT2" t="n">
-        <v>338.7912292480469</v>
+        <v>361.0443115234375</v>
       </c>
       <c r="DU2" t="n">
-        <v>340.44287109375</v>
+        <v>360.9711303710938</v>
       </c>
       <c r="DV2" t="n">
-        <v>341.5435791015625</v>
+        <v>360.9287109375</v>
       </c>
       <c r="DW2" t="n">
-        <v>343.8717346191406</v>
+        <v>360.8422241210938</v>
       </c>
       <c r="DX2" t="n">
-        <v>347.2710571289062</v>
+        <v>360.9949340820312</v>
       </c>
       <c r="DY2" t="n">
-        <v>348.9458923339844</v>
+        <v>362.2622375488281</v>
       </c>
       <c r="DZ2" t="n">
-        <v>351.6256408691406</v>
+        <v>375.7449340820312</v>
       </c>
       <c r="EA2" t="n">
-        <v>352.5975952148438</v>
+        <v>383.8696594238281</v>
       </c>
       <c r="EB2" t="n">
-        <v>352.8582153320312</v>
+        <v>392.335205078125</v>
       </c>
       <c r="EC2" t="n">
-        <v>338.373779296875</v>
+        <v>398.822021484375</v>
       </c>
       <c r="ED2" t="n">
-        <v>340.9441833496094</v>
+        <v>403.9282836914062</v>
       </c>
       <c r="EE2" t="n">
-        <v>341.6185302734375</v>
+        <v>417.9019775390625</v>
       </c>
       <c r="EF2" t="n">
-        <v>342.5309753417969</v>
+        <v>441.4373168945312</v>
       </c>
       <c r="EG2" t="n">
-        <v>341.1151123046875</v>
+        <v>459.6255798339844</v>
       </c>
       <c r="EH2" t="n">
-        <v>339.1150512695312</v>
+        <v>466.314453125</v>
       </c>
       <c r="EI2" t="n">
-        <v>335.4681396484375</v>
+        <v>481.3580322265625</v>
       </c>
       <c r="EJ2" t="n">
-        <v>338.6608276367188</v>
+        <v>484.942138671875</v>
       </c>
       <c r="EK2" t="n">
-        <v>339.2477111816406</v>
+        <v>485.6658935546875</v>
       </c>
       <c r="EL2" t="n">
-        <v>339.7350463867188</v>
+        <v>480.5404968261719</v>
       </c>
       <c r="EM2" t="n">
-        <v>356.5345458984375</v>
+        <v>480.5790405273438</v>
       </c>
       <c r="EN2" t="n">
-        <v>361.15771484375</v>
+        <v>491.80224609375</v>
       </c>
       <c r="EO2" t="n">
-        <v>361.8670654296875</v>
+        <v>498.0474243164062</v>
       </c>
       <c r="EP2" t="n">
-        <v>369.30078125</v>
+        <v>497.6103515625</v>
       </c>
       <c r="EQ2" t="n">
-        <v>303.3444213867188</v>
+        <v>502.78662109375</v>
       </c>
       <c r="ER2" t="n">
-        <v>301.2039184570312</v>
+        <v>506.2648315429688</v>
       </c>
       <c r="ES2" t="n">
-        <v>298.0323181152344</v>
+        <v>505.9500732421875</v>
       </c>
       <c r="ET2" t="n">
-        <v>301.2119140625</v>
+        <v>504.4828796386719</v>
       </c>
       <c r="EU2" t="n">
-        <v>303.1089477539062</v>
+        <v>504.32080078125</v>
       </c>
       <c r="EV2" t="n">
-        <v>306.2929382324219</v>
+        <v>505.5477294921875</v>
       </c>
       <c r="EW2" t="n">
-        <v>331.7359008789062</v>
+        <v>502.225341796875</v>
       </c>
       <c r="EX2" t="n">
-        <v>332.7763061523438</v>
+        <v>498.1341552734375</v>
       </c>
       <c r="EY2" t="n">
-        <v>330.6860961914062</v>
+        <v>494.1163635253906</v>
       </c>
       <c r="EZ2" t="n">
-        <v>329.8486938476562</v>
+        <v>490.8057861328125</v>
       </c>
       <c r="FA2" t="n">
-        <v>314.3022766113281</v>
+        <v>488.9778137207031</v>
       </c>
       <c r="FB2" t="n">
-        <v>313.5778503417969</v>
+        <v>494.4285278320312</v>
       </c>
       <c r="FC2" t="n">
-        <v>320.3352355957031</v>
+        <v>501.0142822265625</v>
       </c>
       <c r="FD2" t="n">
-        <v>319.3164367675781</v>
+        <v>496.9048461914062</v>
       </c>
       <c r="FE2" t="n">
-        <v>318.6482543945312</v>
+        <v>492.92822265625</v>
       </c>
       <c r="FF2" t="n">
-        <v>317.87255859375</v>
+        <v>491.4987182617188</v>
       </c>
       <c r="FG2" t="n">
-        <v>319.7139892578125</v>
+        <v>484.951171875</v>
       </c>
       <c r="FH2" t="n">
-        <v>321.9463500976562</v>
+        <v>482.8404235839844</v>
       </c>
       <c r="FI2" t="n">
-        <v>321.4022521972656</v>
+        <v>473.720947265625</v>
       </c>
       <c r="FJ2" t="n">
-        <v>321.2913513183594</v>
+        <v>471.9579467773438</v>
       </c>
       <c r="FK2" t="n">
-        <v>321.9126892089844</v>
+        <v>476.2175903320312</v>
       </c>
       <c r="FL2" t="n">
-        <v>320.6389770507812</v>
+        <v>473.7606201171875</v>
       </c>
       <c r="FM2" t="n">
-        <v>320.6594848632812</v>
+        <v>463.560546875</v>
       </c>
       <c r="FN2" t="n">
-        <v>319.3927612304688</v>
+        <v>457.7567749023438</v>
       </c>
       <c r="FO2" t="n">
-        <v>318.8652038574219</v>
+        <v>453.8747863769531</v>
       </c>
       <c r="FP2" t="n">
-        <v>313.2982788085938</v>
+        <v>450.8892211914062</v>
       </c>
       <c r="FQ2" t="n">
-        <v>314.1353759765625</v>
+        <v>450.611572265625</v>
       </c>
       <c r="FR2" t="n">
-        <v>318.17041015625</v>
+        <v>450.5361938476562</v>
       </c>
       <c r="FS2" t="n">
-        <v>305.6768493652344</v>
+        <v>450.89111328125</v>
       </c>
       <c r="FT2" t="n">
-        <v>296.6097412109375</v>
+        <v>448.14404296875</v>
       </c>
       <c r="FU2" t="n">
-        <v>292.9291381835938</v>
+        <v>444.9825439453125</v>
       </c>
       <c r="FV2" t="n">
-        <v>302.5083923339844</v>
+        <v>441.1585998535156</v>
       </c>
       <c r="FW2" t="n">
-        <v>319.3941650390625</v>
+        <v>440.2716674804688</v>
       </c>
       <c r="FX2" t="n">
-        <v>319.4781799316406</v>
+        <v>439.7958068847656</v>
       </c>
       <c r="FY2" t="n">
-        <v>319.0104370117188</v>
+        <v>439.7162475585938</v>
       </c>
       <c r="FZ2" t="n">
-        <v>318.3822021484375</v>
+        <v>440.82666015625</v>
       </c>
       <c r="GA2" t="n">
-        <v>305.0431213378906</v>
+        <v>439.7598876953125</v>
       </c>
       <c r="GB2" t="n">
-        <v>306.2340087890625</v>
+        <v>430.3002319335938</v>
       </c>
       <c r="GC2" t="n">
-        <v>310.0153503417969</v>
+        <v>425.7265625</v>
       </c>
       <c r="GD2" t="n">
-        <v>310.3389282226562</v>
+        <v>419.6650390625</v>
       </c>
       <c r="GE2" t="n">
-        <v>307.8024597167969</v>
+        <v>416.1483764648438</v>
       </c>
       <c r="GF2" t="n">
-        <v>307.2914733886719</v>
+        <v>412.90771484375</v>
       </c>
       <c r="GG2" t="n">
-        <v>302.6939392089844</v>
+        <v>412.9306640625</v>
       </c>
       <c r="GH2" t="n">
-        <v>304.9165649414062</v>
+        <v>412.6672668457031</v>
       </c>
       <c r="GI2" t="n">
-        <v>315.5330505371094</v>
+        <v>411.3641967773438</v>
       </c>
       <c r="GJ2" t="n">
-        <v>315.2376708984375</v>
+        <v>409.4560546875</v>
       </c>
       <c r="GK2" t="n">
-        <v>311.1331787109375</v>
+        <v>407.4437866210938</v>
       </c>
       <c r="GL2" t="n">
-        <v>313.9117736816406</v>
+        <v>405.8658142089844</v>
       </c>
       <c r="GM2" t="n">
-        <v>315.5725402832031</v>
+        <v>400.5303649902344</v>
       </c>
       <c r="GN2" t="n">
-        <v>315.089111328125</v>
+        <v>400.7631225585938</v>
       </c>
       <c r="GO2" t="n">
-        <v>315.1322937011719</v>
+        <v>401.9615173339844</v>
       </c>
       <c r="GP2" t="n">
-        <v>313.8218383789062</v>
+        <v>400.2856750488281</v>
       </c>
       <c r="GQ2" t="n">
-        <v>311.7205810546875</v>
+        <v>381.8453979492188</v>
       </c>
       <c r="GR2" t="n">
-        <v>311.8729858398438</v>
+        <v>380.7874755859375</v>
       </c>
       <c r="GS2" t="n">
-        <v>311.5699157714844</v>
+        <v>383.943115234375</v>
       </c>
       <c r="GT2" t="n">
-        <v>311.1648254394531</v>
+        <v>380.9178466796875</v>
       </c>
       <c r="GU2" t="n">
-        <v>311.1803588867188</v>
+        <v>370.7533264160156</v>
       </c>
       <c r="GV2" t="n">
-        <v>311.1200561523438</v>
+        <v>363.9130249023438</v>
       </c>
       <c r="GW2" t="n">
-        <v>310.7299499511719</v>
+        <v>361.48583984375</v>
       </c>
       <c r="GX2" t="n">
-        <v>311.3807678222656</v>
+        <v>356.5858764648438</v>
       </c>
       <c r="GY2" t="n">
-        <v>310.8069763183594</v>
+        <v>356.419921875</v>
       </c>
       <c r="GZ2" t="n">
-        <v>303.6475524902344</v>
+        <v>356.3130493164062</v>
       </c>
       <c r="HA2" t="n">
-        <v>297.1797180175781</v>
+        <v>356.5941772460938</v>
       </c>
       <c r="HB2" t="n">
-        <v>294.91552734375</v>
+        <v>356.5667724609375</v>
       </c>
       <c r="HC2" t="n">
-        <v>293.6441040039062</v>
+        <v>355.8569030761719</v>
       </c>
       <c r="HD2" t="n">
-        <v>300.0896606445312</v>
+        <v>355.5443115234375</v>
       </c>
       <c r="HE2" t="n">
-        <v>307.9126281738281</v>
+        <v>357.0390014648438</v>
       </c>
       <c r="HF2" t="n">
-        <v>316.6781311035156</v>
+        <v>357.9027099609375</v>
       </c>
       <c r="HG2" t="n">
-        <v>317.2162170410156</v>
+        <v>356.8586730957031</v>
       </c>
       <c r="HH2" t="n">
-        <v>316.5781860351562</v>
+        <v>352.8662109375</v>
       </c>
       <c r="HI2" t="n">
-        <v>317.0287170410156</v>
+        <v>349.9745178222656</v>
       </c>
       <c r="HJ2" t="n">
-        <v>317.4070129394531</v>
+        <v>352.4576416015625</v>
       </c>
       <c r="HK2" t="n">
-        <v>316.64453125</v>
+        <v>366.717529296875</v>
       </c>
       <c r="HL2" t="n">
-        <v>313.4625854492188</v>
+        <v>390.357666015625</v>
       </c>
       <c r="HM2" t="n">
-        <v>309.4464111328125</v>
+        <v>397.9127502441406</v>
       </c>
       <c r="HN2" t="n">
-        <v>301.9730834960938</v>
+        <v>405.13037109375</v>
       </c>
       <c r="HO2" t="n">
-        <v>298.2146911621094</v>
+        <v>416.385009765625</v>
       </c>
       <c r="HP2" t="n">
-        <v>297.3408813476562</v>
+        <v>423.6084289550781</v>
       </c>
       <c r="HQ2" t="n">
-        <v>301.0079345703125</v>
+        <v>426.4493408203125</v>
       </c>
       <c r="HR2" t="n">
-        <v>305.9580688476562</v>
+        <v>431.1705017089844</v>
       </c>
       <c r="HS2" t="n">
-        <v>306.2480773925781</v>
+        <v>435.0401000976562</v>
       </c>
       <c r="HT2" t="n">
-        <v>300.5357360839844</v>
+        <v>436.3053588867188</v>
       </c>
       <c r="HU2" t="n">
-        <v>298.3344116210938</v>
+        <v>443.7617797851562</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>443.6232299804688</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>444.1936645507812</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>441.509765625</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>441.9253845214844</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>440.8695068359375</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>439.4184875488281</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>438.9388427734375</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>437.1221923828125</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>434.4195556640625</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>435.7369689941406</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>433.568115234375</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>430.1516723632812</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>432.6365966796875</v>
+      </c>
+      <c r="II2" t="n">
+        <v>430.6475219726562</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>425.078857421875</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>416.318115234375</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>412.4030151367188</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>405.9515075683594</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>394.8918151855469</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>394.8391418457031</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>388.7252502441406</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>392.2891235351562</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>370.2755126953125</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>355.9842529296875</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>352.0248718261719</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>352.7486877441406</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>356.0601806640625</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>355.5781860351562</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>354.2184753417969</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>354.3189697265625</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>354.2621459960938</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>354.7578430175781</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>359.0599975585938</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>358.7743530273438</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>390.9000244140625</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>386.8038330078125</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>388.3521728515625</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>399.9856567382812</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>400.7662353515625</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>405.4101867675781</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>411.6637573242188</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>416.0278930664062</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>419.4415893554688</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>420.1405639648438</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>422.3355712890625</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>421.890380859375</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>420.9496459960938</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>423.8892211914062</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>429.6912841796875</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>425.2758483886719</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>428.9609375</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>428.68115234375</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>428.3282470703125</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>428.1842651367188</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>428.3017578125</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>428.1920776367188</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>428.549560546875</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>428.6759643554688</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>427.8441772460938</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>427.8688354492188</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>427.5729675292969</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>425.1268920898438</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>419.7601318359375</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>420.289306640625</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>419.8047180175781</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>420.2391052246094</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>420.278564453125</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>419.9205322265625</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>420.1656494140625</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>420.1649475097656</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>419.6275329589844</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>419.9755249023438</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>420.2711486816406</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>420.1112365722656</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>419.9701538085938</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>420.9564208984375</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>422.99853515625</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>428.0958862304688</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>427.109619140625</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>427.14697265625</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>426.9600830078125</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>427.9149780273438</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>436.522705078125</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>425.68017578125</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>427.1531372070312</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>434.0514831542969</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>456.7020263671875</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>462.4091796875</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>441.5069580078125</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>445.5275268554688</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>447.0312805175781</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>453.4042358398438</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>458.1202697753906</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>467.1482543945312</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>470.9108276367188</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>477.4383239746094</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>519.0559692382812</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>525.3513793945312</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>504.2181701660156</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>418.7893981933594</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>426.5713806152344</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>438.3318481445312</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>418.2978820800781</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>560.7265014648438</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>567.5816040039062</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>562.6256713867188</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>561.446533203125</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>558.1993408203125</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>545.058837890625</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>523.0096435546875</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>496.8876647949219</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>471.5113525390625</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>438.0411987304688</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>418.2427368164062</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>413.3920593261719</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>407.6357421875</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>412.1669921875</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>416.5643005371094</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>419.8328247070312</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>427.9530029296875</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>431.1635131835938</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>450.60888671875</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>451.7095336914062</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>455.2626342773438</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>458.3147888183594</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>455.6181335449219</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>427.4735107421875</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>411.8396606445312</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>434.8992614746094</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>430.7373657226562</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>370.6410217285156</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>367.7087707519531</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>362.2106323242188</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>394.3685913085938</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>408.933837890625</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>406.9538879394531</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>430.7017211914062</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>424.9322509765625</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>418.1271362304688</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>397.8768310546875</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>311.8633117675781</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>415.8923950195312</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>427.413818359375</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>404.0252685546875</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>389.5523376464844</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>419.7857055664062</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>386.5408935546875</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>422.6839599609375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>651.4638671875</v>
+        <v>543.9564208984375</v>
       </c>
       <c r="B3" t="n">
-        <v>628.9481201171875</v>
+        <v>540.2160034179688</v>
       </c>
       <c r="C3" t="n">
-        <v>616.6610717773438</v>
+        <v>540.7760009765625</v>
       </c>
       <c r="D3" t="n">
-        <v>601.8388671875</v>
+        <v>539.8751831054688</v>
       </c>
       <c r="E3" t="n">
-        <v>606.5015869140625</v>
+        <v>539.5660400390625</v>
       </c>
       <c r="F3" t="n">
-        <v>610.3029174804688</v>
+        <v>539.0349731445312</v>
       </c>
       <c r="G3" t="n">
-        <v>599.6774291992188</v>
+        <v>538.0071411132812</v>
       </c>
       <c r="H3" t="n">
-        <v>626.94091796875</v>
+        <v>536.3302612304688</v>
       </c>
       <c r="I3" t="n">
-        <v>573.4614868164062</v>
+        <v>532.3771362304688</v>
       </c>
       <c r="J3" t="n">
-        <v>610.6152954101562</v>
+        <v>528.3480224609375</v>
       </c>
       <c r="K3" t="n">
-        <v>603.090576171875</v>
+        <v>522.175048828125</v>
       </c>
       <c r="L3" t="n">
-        <v>574.7642822265625</v>
+        <v>519.0223999023438</v>
       </c>
       <c r="M3" t="n">
-        <v>589.6771240234375</v>
+        <v>553.7167358398438</v>
       </c>
       <c r="N3" t="n">
-        <v>584.6616821289062</v>
+        <v>540.7587890625</v>
       </c>
       <c r="O3" t="n">
-        <v>513.5100708007812</v>
+        <v>536.385498046875</v>
       </c>
       <c r="P3" t="n">
-        <v>458.8431396484375</v>
+        <v>529.9674072265625</v>
       </c>
       <c r="Q3" t="n">
-        <v>450.0472717285156</v>
+        <v>526.3827514648438</v>
       </c>
       <c r="R3" t="n">
-        <v>442.4368591308594</v>
+        <v>525.044921875</v>
       </c>
       <c r="S3" t="n">
-        <v>440.1545715332031</v>
+        <v>524.1790771484375</v>
       </c>
       <c r="T3" t="n">
-        <v>450.3624877929688</v>
+        <v>517.95068359375</v>
       </c>
       <c r="U3" t="n">
-        <v>447.194580078125</v>
+        <v>514.7468872070312</v>
       </c>
       <c r="V3" t="n">
-        <v>443.9654846191406</v>
+        <v>515.260498046875</v>
       </c>
       <c r="W3" t="n">
-        <v>444.5279846191406</v>
+        <v>513.743896484375</v>
       </c>
       <c r="X3" t="n">
-        <v>441.312744140625</v>
+        <v>515.2900390625</v>
       </c>
       <c r="Y3" t="n">
-        <v>434.0559997558594</v>
+        <v>526.996337890625</v>
       </c>
       <c r="Z3" t="n">
-        <v>425.8075561523438</v>
+        <v>534.7108154296875</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.2021484375</v>
+        <v>533.863037109375</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.0298156738281</v>
+        <v>533.9072265625</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.3280944824219</v>
+        <v>530.0426025390625</v>
       </c>
       <c r="AD3" t="n">
-        <v>404.1796875</v>
+        <v>499.8168334960938</v>
       </c>
       <c r="AE3" t="n">
-        <v>400.8770141601562</v>
+        <v>499.3941955566406</v>
       </c>
       <c r="AF3" t="n">
-        <v>398.6148986816406</v>
+        <v>495.9817199707031</v>
       </c>
       <c r="AG3" t="n">
-        <v>392.8750915527344</v>
+        <v>494.4069213867188</v>
       </c>
       <c r="AH3" t="n">
-        <v>387.7650451660156</v>
+        <v>483.7848510742188</v>
       </c>
       <c r="AI3" t="n">
-        <v>384.708251953125</v>
+        <v>503.3466796875</v>
       </c>
       <c r="AJ3" t="n">
-        <v>387.2887878417969</v>
+        <v>499.2650451660156</v>
       </c>
       <c r="AK3" t="n">
-        <v>386.3065795898438</v>
+        <v>501.2749633789062</v>
       </c>
       <c r="AL3" t="n">
-        <v>386.190185546875</v>
+        <v>504.2135314941406</v>
       </c>
       <c r="AM3" t="n">
-        <v>389.3617553710938</v>
+        <v>511.3920593261719</v>
       </c>
       <c r="AN3" t="n">
-        <v>387.6985778808594</v>
+        <v>511.650634765625</v>
       </c>
       <c r="AO3" t="n">
-        <v>383.4546508789062</v>
+        <v>513.1556396484375</v>
       </c>
       <c r="AP3" t="n">
-        <v>376.3764953613281</v>
+        <v>515.9710083007812</v>
       </c>
       <c r="AQ3" t="n">
-        <v>375.5950012207031</v>
+        <v>519.7849731445312</v>
       </c>
       <c r="AR3" t="n">
-        <v>375.2309265136719</v>
+        <v>521.830078125</v>
       </c>
       <c r="AS3" t="n">
-        <v>373.597412109375</v>
+        <v>522.8943481445312</v>
       </c>
       <c r="AT3" t="n">
-        <v>371.1022338867188</v>
+        <v>524.2981567382812</v>
       </c>
       <c r="AU3" t="n">
-        <v>369.5398254394531</v>
+        <v>525.537353515625</v>
       </c>
       <c r="AV3" t="n">
-        <v>366.2651977539062</v>
+        <v>524.5638427734375</v>
       </c>
       <c r="AW3" t="n">
-        <v>361.8927001953125</v>
+        <v>523.4556274414062</v>
       </c>
       <c r="AX3" t="n">
-        <v>358.0618286132812</v>
+        <v>524.91357421875</v>
       </c>
       <c r="AY3" t="n">
-        <v>356.691162109375</v>
+        <v>527.6350708007812</v>
       </c>
       <c r="AZ3" t="n">
-        <v>356.4576721191406</v>
+        <v>530.253662109375</v>
       </c>
       <c r="BA3" t="n">
-        <v>357.0854797363281</v>
+        <v>533.3992919921875</v>
       </c>
       <c r="BB3" t="n">
-        <v>358.3608703613281</v>
+        <v>535.0352783203125</v>
       </c>
       <c r="BC3" t="n">
-        <v>360.4463195800781</v>
+        <v>535.4828491210938</v>
       </c>
       <c r="BD3" t="n">
-        <v>360.6173095703125</v>
+        <v>535.8948974609375</v>
       </c>
       <c r="BE3" t="n">
-        <v>360.8116149902344</v>
+        <v>535.4271850585938</v>
       </c>
       <c r="BF3" t="n">
-        <v>358.3967895507812</v>
+        <v>531.363525390625</v>
       </c>
       <c r="BG3" t="n">
-        <v>358.2540588378906</v>
+        <v>526.9056396484375</v>
       </c>
       <c r="BH3" t="n">
-        <v>356.1781616210938</v>
+        <v>522.7077026367188</v>
       </c>
       <c r="BI3" t="n">
-        <v>352.6234436035156</v>
+        <v>519.1629028320312</v>
       </c>
       <c r="BJ3" t="n">
-        <v>350.1043395996094</v>
+        <v>518.2020263671875</v>
       </c>
       <c r="BK3" t="n">
-        <v>348.6976623535156</v>
+        <v>518.3984985351562</v>
       </c>
       <c r="BL3" t="n">
-        <v>348.8876953125</v>
+        <v>520.8956298828125</v>
       </c>
       <c r="BM3" t="n">
-        <v>349.3258056640625</v>
+        <v>523.3953247070312</v>
       </c>
       <c r="BN3" t="n">
-        <v>350.3129577636719</v>
+        <v>525.0460205078125</v>
       </c>
       <c r="BO3" t="n">
-        <v>344.0068664550781</v>
+        <v>529.0482177734375</v>
       </c>
       <c r="BP3" t="n">
-        <v>344.8773498535156</v>
+        <v>530.7915649414062</v>
       </c>
       <c r="BQ3" t="n">
-        <v>337.1759033203125</v>
+        <v>532.9965209960938</v>
       </c>
       <c r="BR3" t="n">
-        <v>339.4919128417969</v>
+        <v>534.2012939453125</v>
       </c>
       <c r="BS3" t="n">
-        <v>339.3098754882812</v>
+        <v>534.6483154296875</v>
       </c>
       <c r="BT3" t="n">
-        <v>339.5278625488281</v>
+        <v>534.416259765625</v>
       </c>
       <c r="BU3" t="n">
-        <v>339.6935729980469</v>
+        <v>536.0955810546875</v>
       </c>
       <c r="BV3" t="n">
-        <v>337.4601135253906</v>
+        <v>537.7796020507812</v>
       </c>
       <c r="BW3" t="n">
-        <v>337.0818481445312</v>
+        <v>539.4732666015625</v>
       </c>
       <c r="BX3" t="n">
-        <v>336.5421142578125</v>
+        <v>540.80322265625</v>
       </c>
       <c r="BY3" t="n">
-        <v>334.5669250488281</v>
+        <v>542.7772827148438</v>
       </c>
       <c r="BZ3" t="n">
-        <v>332.9226989746094</v>
+        <v>543.5655517578125</v>
       </c>
       <c r="CA3" t="n">
-        <v>335.1837158203125</v>
+        <v>540.7811889648438</v>
       </c>
       <c r="CB3" t="n">
-        <v>335.9295349121094</v>
+        <v>538.871337890625</v>
       </c>
       <c r="CC3" t="n">
-        <v>334.029296875</v>
+        <v>536.7450561523438</v>
       </c>
       <c r="CD3" t="n">
-        <v>332.1286926269531</v>
+        <v>536.0616455078125</v>
       </c>
       <c r="CE3" t="n">
-        <v>329.932373046875</v>
+        <v>536.6251220703125</v>
       </c>
       <c r="CF3" t="n">
-        <v>331.1868286132812</v>
+        <v>537.1930541992188</v>
       </c>
       <c r="CG3" t="n">
-        <v>330.2578430175781</v>
+        <v>538.2466430664062</v>
       </c>
       <c r="CH3" t="n">
-        <v>330.859375</v>
+        <v>540.6015625</v>
       </c>
       <c r="CI3" t="n">
-        <v>329.7591857910156</v>
+        <v>541.516357421875</v>
       </c>
       <c r="CJ3" t="n">
-        <v>328.3636474609375</v>
+        <v>545.3123779296875</v>
       </c>
       <c r="CK3" t="n">
-        <v>329.5155029296875</v>
+        <v>547.2943115234375</v>
       </c>
       <c r="CL3" t="n">
-        <v>329.6571044921875</v>
+        <v>548.8770141601562</v>
       </c>
       <c r="CM3" t="n">
-        <v>329.8016052246094</v>
+        <v>549.070556640625</v>
       </c>
       <c r="CN3" t="n">
-        <v>332.0298156738281</v>
+        <v>550.5282592773438</v>
       </c>
       <c r="CO3" t="n">
-        <v>330.4762878417969</v>
+        <v>550.9217529296875</v>
       </c>
       <c r="CP3" t="n">
-        <v>330.925048828125</v>
+        <v>551.5784912109375</v>
       </c>
       <c r="CQ3" t="n">
-        <v>331.1762084960938</v>
+        <v>552.5560302734375</v>
       </c>
       <c r="CR3" t="n">
-        <v>332.4539794921875</v>
+        <v>553.097900390625</v>
       </c>
       <c r="CS3" t="n">
-        <v>330.7869873046875</v>
+        <v>553.45751953125</v>
       </c>
       <c r="CT3" t="n">
-        <v>332.3363037109375</v>
+        <v>553.9915161132812</v>
       </c>
       <c r="CU3" t="n">
-        <v>330.7885437011719</v>
+        <v>554.365234375</v>
       </c>
       <c r="CV3" t="n">
-        <v>336.5774230957031</v>
+        <v>554.2868041992188</v>
       </c>
       <c r="CW3" t="n">
-        <v>333.2645874023438</v>
+        <v>553.7734985351562</v>
       </c>
       <c r="CX3" t="n">
-        <v>327.0923767089844</v>
+        <v>552.8641967773438</v>
       </c>
       <c r="CY3" t="n">
-        <v>319.1588745117188</v>
+        <v>551.3202514648438</v>
       </c>
       <c r="CZ3" t="n">
-        <v>308.599365234375</v>
+        <v>549.161865234375</v>
       </c>
       <c r="DA3" t="n">
-        <v>307.3925170898438</v>
+        <v>548.0350341796875</v>
       </c>
       <c r="DB3" t="n">
-        <v>305.9607543945312</v>
+        <v>547.9345092773438</v>
       </c>
       <c r="DC3" t="n">
-        <v>304.0279541015625</v>
+        <v>548.4112548828125</v>
       </c>
       <c r="DD3" t="n">
-        <v>306.4009399414062</v>
+        <v>548.2864990234375</v>
       </c>
       <c r="DE3" t="n">
-        <v>300.9952697753906</v>
+        <v>548.2847900390625</v>
       </c>
       <c r="DF3" t="n">
-        <v>308.4576110839844</v>
+        <v>547.1332397460938</v>
       </c>
       <c r="DG3" t="n">
-        <v>309.86376953125</v>
+        <v>546.5061645507812</v>
       </c>
       <c r="DH3" t="n">
-        <v>313.3691711425781</v>
+        <v>545.309326171875</v>
       </c>
       <c r="DI3" t="n">
-        <v>316.3216552734375</v>
+        <v>542.334228515625</v>
       </c>
       <c r="DJ3" t="n">
-        <v>316.2823486328125</v>
+        <v>537.7327270507812</v>
       </c>
       <c r="DK3" t="n">
-        <v>322.443359375</v>
+        <v>537.3314208984375</v>
       </c>
       <c r="DL3" t="n">
-        <v>324.0496826171875</v>
+        <v>536.3098754882812</v>
       </c>
       <c r="DM3" t="n">
-        <v>324.9358825683594</v>
+        <v>535.2161865234375</v>
       </c>
       <c r="DN3" t="n">
-        <v>328.3535766601562</v>
+        <v>534.30859375</v>
       </c>
       <c r="DO3" t="n">
-        <v>332.7008056640625</v>
+        <v>536.0740966796875</v>
       </c>
       <c r="DP3" t="n">
-        <v>337.1256103515625</v>
+        <v>536.732421875</v>
       </c>
       <c r="DQ3" t="n">
-        <v>333.9716186523438</v>
+        <v>534.7330322265625</v>
       </c>
       <c r="DR3" t="n">
-        <v>330.4717712402344</v>
+        <v>533.6778564453125</v>
       </c>
       <c r="DS3" t="n">
-        <v>331.0059204101562</v>
+        <v>533.0180053710938</v>
       </c>
       <c r="DT3" t="n">
-        <v>326.6028747558594</v>
+        <v>531.8821411132812</v>
       </c>
       <c r="DU3" t="n">
-        <v>328.8724365234375</v>
+        <v>531.1333618164062</v>
       </c>
       <c r="DV3" t="n">
-        <v>326.6203918457031</v>
+        <v>530.5366821289062</v>
       </c>
       <c r="DW3" t="n">
-        <v>327.1389465332031</v>
+        <v>530.800537109375</v>
       </c>
       <c r="DX3" t="n">
-        <v>322.4225158691406</v>
+        <v>530.129638671875</v>
       </c>
       <c r="DY3" t="n">
-        <v>324.3093566894531</v>
+        <v>529.9967041015625</v>
       </c>
       <c r="DZ3" t="n">
-        <v>321.49658203125</v>
+        <v>532.7357788085938</v>
       </c>
       <c r="EA3" t="n">
-        <v>320.7540893554688</v>
+        <v>536.1351928710938</v>
       </c>
       <c r="EB3" t="n">
-        <v>321.8482666015625</v>
+        <v>535.1181640625</v>
       </c>
       <c r="EC3" t="n">
-        <v>319.17431640625</v>
+        <v>535.5906982421875</v>
       </c>
       <c r="ED3" t="n">
-        <v>323.0810852050781</v>
+        <v>535.359619140625</v>
       </c>
       <c r="EE3" t="n">
-        <v>325.0925598144531</v>
+        <v>535.8671264648438</v>
       </c>
       <c r="EF3" t="n">
-        <v>325.0132446289062</v>
+        <v>536.7327270507812</v>
       </c>
       <c r="EG3" t="n">
-        <v>331.2197875976562</v>
+        <v>529.1293334960938</v>
       </c>
       <c r="EH3" t="n">
-        <v>333.271240234375</v>
+        <v>526.6510009765625</v>
       </c>
       <c r="EI3" t="n">
-        <v>332.8653869628906</v>
+        <v>520.513427734375</v>
       </c>
       <c r="EJ3" t="n">
-        <v>339.5042114257812</v>
+        <v>518.2294311523438</v>
       </c>
       <c r="EK3" t="n">
-        <v>338.0234680175781</v>
+        <v>511.5677795410156</v>
       </c>
       <c r="EL3" t="n">
-        <v>340.3143920898438</v>
+        <v>508.6068420410156</v>
       </c>
       <c r="EM3" t="n">
-        <v>330.2020263671875</v>
+        <v>502.7661437988281</v>
       </c>
       <c r="EN3" t="n">
-        <v>316.3433837890625</v>
+        <v>499.0377197265625</v>
       </c>
       <c r="EO3" t="n">
-        <v>301.9090270996094</v>
+        <v>504.9093322753906</v>
       </c>
       <c r="EP3" t="n">
-        <v>298.7242736816406</v>
+        <v>503.8059387207031</v>
       </c>
       <c r="EQ3" t="n">
-        <v>321.0379943847656</v>
+        <v>501.2579040527344</v>
       </c>
       <c r="ER3" t="n">
-        <v>321.8236694335938</v>
+        <v>500.6311340332031</v>
       </c>
       <c r="ES3" t="n">
-        <v>321.3824768066406</v>
+        <v>502.7933044433594</v>
       </c>
       <c r="ET3" t="n">
-        <v>321.9220275878906</v>
+        <v>502.6990661621094</v>
       </c>
       <c r="EU3" t="n">
-        <v>322.4910888671875</v>
+        <v>497.9476623535156</v>
       </c>
       <c r="EV3" t="n">
-        <v>325.3388366699219</v>
+        <v>494.6862182617188</v>
       </c>
       <c r="EW3" t="n">
-        <v>336.4786987304688</v>
+        <v>482.7039489746094</v>
       </c>
       <c r="EX3" t="n">
-        <v>338.1547546386719</v>
+        <v>474.2712707519531</v>
       </c>
       <c r="EY3" t="n">
-        <v>342.4032897949219</v>
+        <v>470.4159545898438</v>
       </c>
       <c r="EZ3" t="n">
-        <v>343.1114807128906</v>
+        <v>465.7437744140625</v>
       </c>
       <c r="FA3" t="n">
-        <v>338.5909118652344</v>
+        <v>461.6917419433594</v>
       </c>
       <c r="FB3" t="n">
-        <v>337.41162109375</v>
+        <v>466.2527160644531</v>
       </c>
       <c r="FC3" t="n">
-        <v>332.3241271972656</v>
+        <v>469.765869140625</v>
       </c>
       <c r="FD3" t="n">
-        <v>330.0434875488281</v>
+        <v>473.4990539550781</v>
       </c>
       <c r="FE3" t="n">
-        <v>328.8934936523438</v>
+        <v>471.8980102539062</v>
       </c>
       <c r="FF3" t="n">
-        <v>330.3884887695312</v>
+        <v>469.5136413574219</v>
       </c>
       <c r="FG3" t="n">
-        <v>326.03662109375</v>
+        <v>467.6734924316406</v>
       </c>
       <c r="FH3" t="n">
-        <v>326.6053466796875</v>
+        <v>467.6279602050781</v>
       </c>
       <c r="FI3" t="n">
-        <v>326.63525390625</v>
+        <v>463.9525756835938</v>
       </c>
       <c r="FJ3" t="n">
-        <v>325.6215515136719</v>
+        <v>460.2984313964844</v>
       </c>
       <c r="FK3" t="n">
-        <v>330.7220153808594</v>
+        <v>455.5827026367188</v>
       </c>
       <c r="FL3" t="n">
-        <v>335.9325866699219</v>
+        <v>454.1370239257812</v>
       </c>
       <c r="FM3" t="n">
-        <v>336.2080688476562</v>
+        <v>450.1283264160156</v>
       </c>
       <c r="FN3" t="n">
-        <v>342.4969787597656</v>
+        <v>447.3542785644531</v>
       </c>
       <c r="FO3" t="n">
-        <v>343.2069091796875</v>
+        <v>446.0708618164062</v>
       </c>
       <c r="FP3" t="n">
-        <v>340.7335510253906</v>
+        <v>443.1821899414062</v>
       </c>
       <c r="FQ3" t="n">
-        <v>344.8589782714844</v>
+        <v>447.2304992675781</v>
       </c>
       <c r="FR3" t="n">
-        <v>336.4544067382812</v>
+        <v>449.1015014648438</v>
       </c>
       <c r="FS3" t="n">
-        <v>327.4919738769531</v>
+        <v>450.3907775878906</v>
       </c>
       <c r="FT3" t="n">
-        <v>325.7726745605469</v>
+        <v>446.1585693359375</v>
       </c>
       <c r="FU3" t="n">
-        <v>322.4776611328125</v>
+        <v>446.2947998046875</v>
       </c>
       <c r="FV3" t="n">
-        <v>319.6016845703125</v>
+        <v>447.1659240722656</v>
       </c>
       <c r="FW3" t="n">
-        <v>333.7992553710938</v>
+        <v>445.7102661132812</v>
       </c>
       <c r="FX3" t="n">
-        <v>331.2400512695312</v>
+        <v>445.8732604980469</v>
       </c>
       <c r="FY3" t="n">
-        <v>331.0054626464844</v>
+        <v>446.2862548828125</v>
       </c>
       <c r="FZ3" t="n">
-        <v>334.2153930664062</v>
+        <v>446.2514038085938</v>
       </c>
       <c r="GA3" t="n">
-        <v>333.1382141113281</v>
+        <v>445.4609680175781</v>
       </c>
       <c r="GB3" t="n">
-        <v>335.9840087890625</v>
+        <v>443.0819396972656</v>
       </c>
       <c r="GC3" t="n">
-        <v>340.2387084960938</v>
+        <v>440.3572998046875</v>
       </c>
       <c r="GD3" t="n">
-        <v>339.6781616210938</v>
+        <v>440.256103515625</v>
       </c>
       <c r="GE3" t="n">
-        <v>341.773681640625</v>
+        <v>438.2023315429688</v>
       </c>
       <c r="GF3" t="n">
-        <v>339.8578491210938</v>
+        <v>437.2001953125</v>
       </c>
       <c r="GG3" t="n">
-        <v>341.9266967773438</v>
+        <v>437.4182434082031</v>
       </c>
       <c r="GH3" t="n">
-        <v>344.3080139160156</v>
+        <v>436.9272766113281</v>
       </c>
       <c r="GI3" t="n">
-        <v>350.8934020996094</v>
+        <v>436.9064331054688</v>
       </c>
       <c r="GJ3" t="n">
-        <v>352.6673583984375</v>
+        <v>437.8573913574219</v>
       </c>
       <c r="GK3" t="n">
-        <v>353.1393127441406</v>
+        <v>438.7401123046875</v>
       </c>
       <c r="GL3" t="n">
-        <v>354.36181640625</v>
+        <v>439.0436401367188</v>
       </c>
       <c r="GM3" t="n">
-        <v>354.3901672363281</v>
+        <v>439.1699829101562</v>
       </c>
       <c r="GN3" t="n">
-        <v>351.6519775390625</v>
+        <v>438.3181762695312</v>
       </c>
       <c r="GO3" t="n">
-        <v>354.0569152832031</v>
+        <v>438.9736938476562</v>
       </c>
       <c r="GP3" t="n">
-        <v>354.3753356933594</v>
+        <v>436.8178100585938</v>
       </c>
       <c r="GQ3" t="n">
-        <v>356.0198669433594</v>
+        <v>434.5903015136719</v>
       </c>
       <c r="GR3" t="n">
-        <v>358.0419311523438</v>
+        <v>430.4543762207031</v>
       </c>
       <c r="GS3" t="n">
-        <v>362.1702880859375</v>
+        <v>429.4314880371094</v>
       </c>
       <c r="GT3" t="n">
-        <v>363.9132995605469</v>
+        <v>428.621337890625</v>
       </c>
       <c r="GU3" t="n">
-        <v>368.1777648925781</v>
+        <v>422.9811096191406</v>
       </c>
       <c r="GV3" t="n">
-        <v>377.2747497558594</v>
+        <v>420.9966735839844</v>
       </c>
       <c r="GW3" t="n">
-        <v>384.3096313476562</v>
+        <v>422.5702819824219</v>
       </c>
       <c r="GX3" t="n">
-        <v>386.6177978515625</v>
+        <v>421.3257446289062</v>
       </c>
       <c r="GY3" t="n">
-        <v>390.207275390625</v>
+        <v>420.1101989746094</v>
       </c>
       <c r="GZ3" t="n">
-        <v>393.2110290527344</v>
+        <v>421.8114318847656</v>
       </c>
       <c r="HA3" t="n">
-        <v>390.7347717285156</v>
+        <v>421.7786254882812</v>
       </c>
       <c r="HB3" t="n">
-        <v>396.0928039550781</v>
+        <v>420.8327941894531</v>
       </c>
       <c r="HC3" t="n">
-        <v>402.9624328613281</v>
+        <v>414.9482727050781</v>
       </c>
       <c r="HD3" t="n">
-        <v>415.2357788085938</v>
+        <v>415.3460083007812</v>
       </c>
       <c r="HE3" t="n">
-        <v>422.1535339355469</v>
+        <v>417.7880249023438</v>
       </c>
       <c r="HF3" t="n">
-        <v>427.4426574707031</v>
+        <v>418.1403503417969</v>
       </c>
       <c r="HG3" t="n">
-        <v>431.2752380371094</v>
+        <v>418.3580627441406</v>
       </c>
       <c r="HH3" t="n">
-        <v>439.8573608398438</v>
+        <v>420.7622680664062</v>
       </c>
       <c r="HI3" t="n">
-        <v>444.4299621582031</v>
+        <v>419.5896606445312</v>
       </c>
       <c r="HJ3" t="n">
-        <v>453.4231872558594</v>
+        <v>422.7489624023438</v>
       </c>
       <c r="HK3" t="n">
-        <v>464.1192016601562</v>
+        <v>421.1071472167969</v>
       </c>
       <c r="HL3" t="n">
-        <v>475.9140319824219</v>
+        <v>430.3808898925781</v>
       </c>
       <c r="HM3" t="n">
-        <v>490.9997863769531</v>
+        <v>439.2620849609375</v>
       </c>
       <c r="HN3" t="n">
-        <v>508.5614318847656</v>
+        <v>442.2055358886719</v>
       </c>
       <c r="HO3" t="n">
-        <v>518.9861450195312</v>
+        <v>447.6720886230469</v>
       </c>
       <c r="HP3" t="n">
-        <v>531.906005859375</v>
+        <v>447.7529602050781</v>
       </c>
       <c r="HQ3" t="n">
-        <v>544.794921875</v>
+        <v>445.6776428222656</v>
       </c>
       <c r="HR3" t="n">
-        <v>564.6178588867188</v>
+        <v>444.4751892089844</v>
       </c>
       <c r="HS3" t="n">
-        <v>595.4928588867188</v>
+        <v>444.8964538574219</v>
       </c>
       <c r="HT3" t="n">
-        <v>641.3836669921875</v>
+        <v>447.828369140625</v>
       </c>
       <c r="HU3" t="n">
-        <v>676.86669921875</v>
+        <v>446.2130432128906</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>447.1491088867188</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>448.0323791503906</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>449.001953125</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>449.0027770996094</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>449.3926086425781</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>451.1031188964844</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>451.9426574707031</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>451.7493286132812</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>449.9414672851562</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>448.0192260742188</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>449.1286315917969</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>449.5621337890625</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>448.3766784667969</v>
+      </c>
+      <c r="II3" t="n">
+        <v>449.8029174804688</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>449.5140991210938</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>446.6268920898438</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>446.6896057128906</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>446.3280029296875</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>445.7113037109375</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>445.3270568847656</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>442.9383850097656</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>435.3312377929688</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>437.6456604003906</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>433.8207397460938</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>434.0612487792969</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>432.7506103515625</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>432.187744140625</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>432.1268005371094</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>430.939453125</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>431.32470703125</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>431.5080871582031</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>433.3544616699219</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>433.0087585449219</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>435.0785827636719</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>431.9082946777344</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>437.4528503417969</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>440.0280151367188</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>442.992919921875</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>445.6479187011719</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>446.3255004882812</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>447.1050109863281</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>447.4279174804688</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>446.7761535644531</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>447.5809020996094</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>447.9084777832031</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>448.8974914550781</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>449.1098022460938</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>449.5097961425781</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>449.3719787597656</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>448.6338195800781</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>447.0313720703125</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>447.4516906738281</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>447.68505859375</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>447.5625</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>447.539794921875</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>448.2310485839844</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>448.7999877929688</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>450.6503295898438</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>452.6338195800781</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>452.6282653808594</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>449.6651916503906</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>447.9721069335938</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>447.154541015625</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>452.3588562011719</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>452.1814880371094</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>451.7046203613281</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>453.2523498535156</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>452.4484558105469</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>451.1974182128906</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>451.0861511230469</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>450.7936401367188</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>450.2994079589844</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>450.593994140625</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>451.8526306152344</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>450.3334045410156</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>448.1346740722656</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>447.4535217285156</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>446.542236328125</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>446.961181640625</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>446.7861938476562</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>446.7091369628906</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>447.5462646484375</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>450.2088317871094</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>451.5912475585938</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>453.4449768066406</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>455.7586364746094</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>453.3487243652344</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>452.5586547851562</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>450.1879577636719</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>457.3734741210938</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>462.7283935546875</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>472.1055297851562</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>476.6086730957031</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>480.5591125488281</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>491.758056640625</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>494.3422546386719</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>517.5448608398438</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>518.2346801757812</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>518.828369140625</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>470.8377380371094</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>489.5321350097656</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>512.10986328125</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>493.451171875</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>562.4575805664062</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>584.8245239257812</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>662.2018432617188</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>602.4329223632812</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>618.2140502929688</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>644.5667114257812</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>684.4060668945312</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>692.8755493164062</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>689.9806518554688</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>633.22021484375</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>595.1907958984375</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>582.8959350585938</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>594.1190795898438</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>606.1482543945312</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>611.7185668945312</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>636.4075317382812</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>667.6484375</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>693.1517944335938</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>706.77734375</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>691.9222412109375</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>685.97998046875</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>689.9483642578125</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>692.2275390625</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>707.94580078125</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>787.8721313476562</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>852.7920532226562</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>849.6171264648438</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>856.302001953125</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>865.5684814453125</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>884.8383178710938</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>883.69677734375</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>882.3104248046875</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>888.1238403320312</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>852.0424194335938</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>878.3023681640625</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>892.7035522460938</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>943.2474365234375</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>965.0283203125</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>982.6453247070312</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>962.184814453125</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>971.9120483398438</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>959.1712036132812</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>888.2273559570312</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>936.4971313476562</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>920.2067260742188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>798.3926391601562</v>
+        <v>1036.720458984375</v>
       </c>
       <c r="B4" t="n">
-        <v>825.85107421875</v>
+        <v>1031.981201171875</v>
       </c>
       <c r="C4" t="n">
-        <v>851.1813354492188</v>
+        <v>1032.684692382812</v>
       </c>
       <c r="D4" t="n">
-        <v>882.2257690429688</v>
+        <v>1033.931762695312</v>
       </c>
       <c r="E4" t="n">
-        <v>916.3443603515625</v>
+        <v>1035.186889648438</v>
       </c>
       <c r="F4" t="n">
-        <v>890.7291870117188</v>
+        <v>1036.445434570312</v>
       </c>
       <c r="G4" t="n">
-        <v>967.1566772460938</v>
+        <v>1038.571655273438</v>
       </c>
       <c r="H4" t="n">
-        <v>894.656982421875</v>
+        <v>1041.964111328125</v>
       </c>
       <c r="I4" t="n">
-        <v>1004.089782714844</v>
+        <v>1050.42822265625</v>
       </c>
       <c r="J4" t="n">
-        <v>960.330322265625</v>
+        <v>1066.005981445312</v>
       </c>
       <c r="K4" t="n">
-        <v>993.64990234375</v>
+        <v>1087.499145507812</v>
       </c>
       <c r="L4" t="n">
-        <v>1085.1484375</v>
+        <v>1102.264404296875</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.183227539062</v>
+        <v>942.38525390625</v>
       </c>
       <c r="N4" t="n">
-        <v>1100.846923828125</v>
+        <v>964.2960815429688</v>
       </c>
       <c r="O4" t="n">
-        <v>1298.570556640625</v>
+        <v>1009.984680175781</v>
       </c>
       <c r="P4" t="n">
-        <v>1339.744262695312</v>
+        <v>1015.095397949219</v>
       </c>
       <c r="Q4" t="n">
-        <v>1373.258911132812</v>
+        <v>1001.142150878906</v>
       </c>
       <c r="R4" t="n">
-        <v>1412.232788085938</v>
+        <v>1006.73876953125</v>
       </c>
       <c r="S4" t="n">
-        <v>1445.353881835938</v>
+        <v>1006.475402832031</v>
       </c>
       <c r="T4" t="n">
-        <v>1333.046020507812</v>
+        <v>1009.996459960938</v>
       </c>
       <c r="U4" t="n">
-        <v>1338.614379882812</v>
+        <v>1019.962768554688</v>
       </c>
       <c r="V4" t="n">
-        <v>1364.26123046875</v>
+        <v>1029.09375</v>
       </c>
       <c r="W4" t="n">
-        <v>1404.461547851562</v>
+        <v>1025.507690429688</v>
       </c>
       <c r="X4" t="n">
-        <v>1426.020629882812</v>
+        <v>1048.927856445312</v>
       </c>
       <c r="Y4" t="n">
-        <v>1433.2705078125</v>
+        <v>1024.68896484375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1441.64208984375</v>
+        <v>999.1583251953125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1480.08642578125</v>
+        <v>993.1671142578125</v>
       </c>
       <c r="AB4" t="n">
-        <v>1550.18359375</v>
+        <v>1072.683349609375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1603.919799804688</v>
+        <v>1088.54150390625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1641.619384765625</v>
+        <v>1291.733520507812</v>
       </c>
       <c r="AE4" t="n">
-        <v>1690.702758789062</v>
+        <v>1296.904296875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1725.265869140625</v>
+        <v>1307.98828125</v>
       </c>
       <c r="AG4" t="n">
-        <v>1758.09912109375</v>
+        <v>1315.254272460938</v>
       </c>
       <c r="AH4" t="n">
-        <v>1801.186767578125</v>
+        <v>1346.175659179688</v>
       </c>
       <c r="AI4" t="n">
-        <v>1847.879638671875</v>
+        <v>1076.960571289062</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1912.843872070312</v>
+        <v>1086.488037109375</v>
       </c>
       <c r="AK4" t="n">
-        <v>1939.041137695312</v>
+        <v>1073.25439453125</v>
       </c>
       <c r="AL4" t="n">
-        <v>2000.997314453125</v>
+        <v>1067.081665039062</v>
       </c>
       <c r="AM4" t="n">
-        <v>2109.264892578125</v>
+        <v>1051.352294921875</v>
       </c>
       <c r="AN4" t="n">
-        <v>2148.762451171875</v>
+        <v>1046.48291015625</v>
       </c>
       <c r="AO4" t="n">
-        <v>2298.18603515625</v>
+        <v>1039.605834960938</v>
       </c>
       <c r="AP4" t="n">
-        <v>2425.45166015625</v>
+        <v>1036.061279296875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2444.099365234375</v>
+        <v>1034.854248046875</v>
       </c>
       <c r="AR4" t="n">
-        <v>2435.6494140625</v>
+        <v>1041.348388671875</v>
       </c>
       <c r="AS4" t="n">
-        <v>2457.79248046875</v>
+        <v>1044.106689453125</v>
       </c>
       <c r="AT4" t="n">
-        <v>2511.048583984375</v>
+        <v>1048.259643554688</v>
       </c>
       <c r="AU4" t="n">
-        <v>2522.600341796875</v>
+        <v>1049.232788085938</v>
       </c>
       <c r="AV4" t="n">
-        <v>2563.262451171875</v>
+        <v>1054.788452148438</v>
       </c>
       <c r="AW4" t="n">
-        <v>2606.8720703125</v>
+        <v>1056.032836914062</v>
       </c>
       <c r="AX4" t="n">
-        <v>2670.788818359375</v>
+        <v>1055.055297851562</v>
       </c>
       <c r="AY4" t="n">
-        <v>2694.275634765625</v>
+        <v>1052.08984375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2702.435302734375</v>
+        <v>1048.876220703125</v>
       </c>
       <c r="BA4" t="n">
-        <v>2726.468505859375</v>
+        <v>1043.439819335938</v>
       </c>
       <c r="BB4" t="n">
-        <v>2753.83447265625</v>
+        <v>1032.009765625</v>
       </c>
       <c r="BC4" t="n">
-        <v>2759.59619140625</v>
+        <v>1022.48828125</v>
       </c>
       <c r="BD4" t="n">
-        <v>2787.237060546875</v>
+        <v>1021.195495605469</v>
       </c>
       <c r="BE4" t="n">
-        <v>2782.42919921875</v>
+        <v>1019.641845703125</v>
       </c>
       <c r="BF4" t="n">
-        <v>2818.199462890625</v>
+        <v>1020.287841796875</v>
       </c>
       <c r="BG4" t="n">
-        <v>2830.8623046875</v>
+        <v>1022.083740234375</v>
       </c>
       <c r="BH4" t="n">
-        <v>2832.90966796875</v>
+        <v>1027.275512695312</v>
       </c>
       <c r="BI4" t="n">
-        <v>2859.997314453125</v>
+        <v>1032.22216796875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2898.16845703125</v>
+        <v>1035.9296875</v>
       </c>
       <c r="BK4" t="n">
-        <v>2953.5849609375</v>
+        <v>1044.260620117188</v>
       </c>
       <c r="BL4" t="n">
-        <v>2980.101806640625</v>
+        <v>1049.376220703125</v>
       </c>
       <c r="BM4" t="n">
-        <v>3019.66064453125</v>
+        <v>1050.306518554688</v>
       </c>
       <c r="BN4" t="n">
-        <v>3062.154296875</v>
+        <v>1047.895874023438</v>
       </c>
       <c r="BO4" t="n">
-        <v>3072.264892578125</v>
+        <v>1012.275146484375</v>
       </c>
       <c r="BP4" t="n">
-        <v>3114.2001953125</v>
+        <v>992.7572021484375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3144.5712890625</v>
+        <v>983.443115234375</v>
       </c>
       <c r="BR4" t="n">
-        <v>3158.579345703125</v>
+        <v>977.926025390625</v>
       </c>
       <c r="BS4" t="n">
-        <v>3214.6279296875</v>
+        <v>974.667724609375</v>
       </c>
       <c r="BT4" t="n">
-        <v>3229.957275390625</v>
+        <v>973.628662109375</v>
       </c>
       <c r="BU4" t="n">
-        <v>3231.8662109375</v>
+        <v>970.3587646484375</v>
       </c>
       <c r="BV4" t="n">
-        <v>3245.4794921875</v>
+        <v>965.1100463867188</v>
       </c>
       <c r="BW4" t="n">
-        <v>3284.66650390625</v>
+        <v>957.6611328125</v>
       </c>
       <c r="BX4" t="n">
-        <v>3377.33447265625</v>
+        <v>959.768310546875</v>
       </c>
       <c r="BY4" t="n">
-        <v>3424.096923828125</v>
+        <v>959.5638427734375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3465.727294921875</v>
+        <v>962.7127685546875</v>
       </c>
       <c r="CA4" t="n">
-        <v>3453.614990234375</v>
+        <v>970.91552734375</v>
       </c>
       <c r="CB4" t="n">
-        <v>3500.651123046875</v>
+        <v>975.22216796875</v>
       </c>
       <c r="CC4" t="n">
-        <v>3446.446533203125</v>
+        <v>976.9403076171875</v>
       </c>
       <c r="CD4" t="n">
-        <v>3452.9775390625</v>
+        <v>977.6144409179688</v>
       </c>
       <c r="CE4" t="n">
-        <v>3487.422607421875</v>
+        <v>975.2245483398438</v>
       </c>
       <c r="CF4" t="n">
-        <v>3518.874267578125</v>
+        <v>974.2639770507812</v>
       </c>
       <c r="CG4" t="n">
-        <v>3603.272216796875</v>
+        <v>973.20556640625</v>
       </c>
       <c r="CH4" t="n">
-        <v>3652.110595703125</v>
+        <v>968.9613037109375</v>
       </c>
       <c r="CI4" t="n">
-        <v>3660.6533203125</v>
+        <v>961.879638671875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3608.8056640625</v>
+        <v>945.6875</v>
       </c>
       <c r="CK4" t="n">
-        <v>3663.853515625</v>
+        <v>937.1615600585938</v>
       </c>
       <c r="CL4" t="n">
-        <v>3711.969970703125</v>
+        <v>926.3871459960938</v>
       </c>
       <c r="CM4" t="n">
-        <v>3693.791015625</v>
+        <v>925.5838623046875</v>
       </c>
       <c r="CN4" t="n">
-        <v>3701.78515625</v>
+        <v>922.6333618164062</v>
       </c>
       <c r="CO4" t="n">
-        <v>3742.626953125</v>
+        <v>924.542236328125</v>
       </c>
       <c r="CP4" t="n">
-        <v>3707.75927734375</v>
+        <v>926.4317626953125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3661.304931640625</v>
+        <v>924.2984619140625</v>
       </c>
       <c r="CR4" t="n">
-        <v>3697.8564453125</v>
+        <v>925.9627075195312</v>
       </c>
       <c r="CS4" t="n">
-        <v>3685.195068359375</v>
+        <v>930.9730834960938</v>
       </c>
       <c r="CT4" t="n">
-        <v>3685.530517578125</v>
+        <v>930.0345458984375</v>
       </c>
       <c r="CU4" t="n">
-        <v>3714.414794921875</v>
+        <v>929.4693603515625</v>
       </c>
       <c r="CV4" t="n">
-        <v>3705.82421875</v>
+        <v>928.5933837890625</v>
       </c>
       <c r="CW4" t="n">
-        <v>3570.74072265625</v>
+        <v>927.6050415039062</v>
       </c>
       <c r="CX4" t="n">
-        <v>3513.3154296875</v>
+        <v>925.1068115234375</v>
       </c>
       <c r="CY4" t="n">
-        <v>3559.395751953125</v>
+        <v>925.7855224609375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3459.9248046875</v>
+        <v>927.2791748046875</v>
       </c>
       <c r="DA4" t="n">
-        <v>3473.6728515625</v>
+        <v>928.158935546875</v>
       </c>
       <c r="DB4" t="n">
-        <v>3475.1826171875</v>
+        <v>928.857666015625</v>
       </c>
       <c r="DC4" t="n">
-        <v>3476.03076171875</v>
+        <v>928.663818359375</v>
       </c>
       <c r="DD4" t="n">
-        <v>3517.076171875</v>
+        <v>929.3016357421875</v>
       </c>
       <c r="DE4" t="n">
-        <v>3404.379638671875</v>
+        <v>930.2129516601562</v>
       </c>
       <c r="DF4" t="n">
-        <v>3444.16162109375</v>
+        <v>929.7302856445312</v>
       </c>
       <c r="DG4" t="n">
-        <v>3505.2373046875</v>
+        <v>928.1676025390625</v>
       </c>
       <c r="DH4" t="n">
-        <v>3457.203125</v>
+        <v>925.5400390625</v>
       </c>
       <c r="DI4" t="n">
-        <v>3470.51953125</v>
+        <v>925.8793334960938</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3476.12841796875</v>
+        <v>925.5771484375</v>
       </c>
       <c r="DK4" t="n">
-        <v>3526.94384765625</v>
+        <v>923.923583984375</v>
       </c>
       <c r="DL4" t="n">
-        <v>3561.266357421875</v>
+        <v>925.872802734375</v>
       </c>
       <c r="DM4" t="n">
-        <v>3579.10498046875</v>
+        <v>928.7545166015625</v>
       </c>
       <c r="DN4" t="n">
-        <v>3628.05419921875</v>
+        <v>934.90478515625</v>
       </c>
       <c r="DO4" t="n">
-        <v>3553.16064453125</v>
+        <v>947.8292236328125</v>
       </c>
       <c r="DP4" t="n">
-        <v>3554.086669921875</v>
+        <v>968.5574951171875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3557.87255859375</v>
+        <v>995.462646484375</v>
       </c>
       <c r="DR4" t="n">
-        <v>3506.446533203125</v>
+        <v>998.3743286132812</v>
       </c>
       <c r="DS4" t="n">
-        <v>3547.46435546875</v>
+        <v>1000.557678222656</v>
       </c>
       <c r="DT4" t="n">
-        <v>3553.6025390625</v>
+        <v>1005.129150390625</v>
       </c>
       <c r="DU4" t="n">
-        <v>3562.283935546875</v>
+        <v>1007.454467773438</v>
       </c>
       <c r="DV4" t="n">
-        <v>3628.39453125</v>
+        <v>1008.876525878906</v>
       </c>
       <c r="DW4" t="n">
-        <v>3624.60009765625</v>
+        <v>1010.053833007812</v>
       </c>
       <c r="DX4" t="n">
-        <v>3625.416259765625</v>
+        <v>1011.397094726562</v>
       </c>
       <c r="DY4" t="n">
-        <v>3603.15869140625</v>
+        <v>1013.588500976562</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3605.28564453125</v>
+        <v>1014.703735351562</v>
       </c>
       <c r="EA4" t="n">
-        <v>3598.22900390625</v>
+        <v>1013.160522460938</v>
       </c>
       <c r="EB4" t="n">
-        <v>3595.363525390625</v>
+        <v>1018.325805664062</v>
       </c>
       <c r="EC4" t="n">
-        <v>3413.18017578125</v>
+        <v>1016.943054199219</v>
       </c>
       <c r="ED4" t="n">
-        <v>3515.388671875</v>
+        <v>1016.577026367188</v>
       </c>
       <c r="EE4" t="n">
-        <v>3514.125</v>
+        <v>1016.218017578125</v>
       </c>
       <c r="EF4" t="n">
-        <v>3533.05224609375</v>
+        <v>1026.227661132812</v>
       </c>
       <c r="EG4" t="n">
-        <v>3522.71484375</v>
+        <v>1074.190673828125</v>
       </c>
       <c r="EH4" t="n">
-        <v>3490.7880859375</v>
+        <v>1084.458740234375</v>
       </c>
       <c r="EI4" t="n">
-        <v>3482.074462890625</v>
+        <v>1109.89599609375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3498.595703125</v>
+        <v>1119.711059570312</v>
       </c>
       <c r="EK4" t="n">
-        <v>3454.830810546875</v>
+        <v>1155.797607421875</v>
       </c>
       <c r="EL4" t="n">
-        <v>3245.95654296875</v>
+        <v>1172.251953125</v>
       </c>
       <c r="EM4" t="n">
-        <v>3083.4033203125</v>
+        <v>1189.665161132812</v>
       </c>
       <c r="EN4" t="n">
-        <v>3057.340576171875</v>
+        <v>1202.121704101562</v>
       </c>
       <c r="EO4" t="n">
-        <v>3027.2294921875</v>
+        <v>1210.894775390625</v>
       </c>
       <c r="EP4" t="n">
-        <v>3009.101318359375</v>
+        <v>1212.473266601562</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3256.07373046875</v>
+        <v>1240.535888671875</v>
       </c>
       <c r="ER4" t="n">
-        <v>3219.0927734375</v>
+        <v>1252.089965820312</v>
       </c>
       <c r="ES4" t="n">
-        <v>3232.11328125</v>
+        <v>1258.22607421875</v>
       </c>
       <c r="ET4" t="n">
-        <v>3240.783203125</v>
+        <v>1262.205810546875</v>
       </c>
       <c r="EU4" t="n">
-        <v>3234.298095703125</v>
+        <v>1281.24169921875</v>
       </c>
       <c r="EV4" t="n">
-        <v>3244.549072265625</v>
+        <v>1322.792358398438</v>
       </c>
       <c r="EW4" t="n">
-        <v>3341.007568359375</v>
+        <v>1385.331787109375</v>
       </c>
       <c r="EX4" t="n">
-        <v>3356.9521484375</v>
+        <v>1410.732543945312</v>
       </c>
       <c r="EY4" t="n">
-        <v>3364.634033203125</v>
+        <v>1445.040161132812</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3350.75244140625</v>
+        <v>1473.617919921875</v>
       </c>
       <c r="FA4" t="n">
-        <v>3223.197509765625</v>
+        <v>1512.8681640625</v>
       </c>
       <c r="FB4" t="n">
-        <v>3293.01513671875</v>
+        <v>1517.307250976562</v>
       </c>
       <c r="FC4" t="n">
-        <v>3440.299560546875</v>
+        <v>1531.598388671875</v>
       </c>
       <c r="FD4" t="n">
-        <v>3413.13916015625</v>
+        <v>1615.209106445312</v>
       </c>
       <c r="FE4" t="n">
-        <v>3398.04541015625</v>
+        <v>1656.436279296875</v>
       </c>
       <c r="FF4" t="n">
-        <v>3382.788818359375</v>
+        <v>1678.270263671875</v>
       </c>
       <c r="FG4" t="n">
-        <v>3375.244873046875</v>
+        <v>1764.890625</v>
       </c>
       <c r="FH4" t="n">
-        <v>3401.7265625</v>
+        <v>1802.895263671875</v>
       </c>
       <c r="FI4" t="n">
-        <v>3428.6240234375</v>
+        <v>1801.904541015625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3484.1142578125</v>
+        <v>1825.961059570312</v>
       </c>
       <c r="FK4" t="n">
-        <v>3479.962158203125</v>
+        <v>1873.908447265625</v>
       </c>
       <c r="FL4" t="n">
-        <v>3421.99169921875</v>
+        <v>1893.935424804688</v>
       </c>
       <c r="FM4" t="n">
-        <v>3457.099365234375</v>
+        <v>1980.645263671875</v>
       </c>
       <c r="FN4" t="n">
-        <v>3473.78466796875</v>
+        <v>2022.049072265625</v>
       </c>
       <c r="FO4" t="n">
-        <v>3403.939208984375</v>
+        <v>2058.2509765625</v>
       </c>
       <c r="FP4" t="n">
-        <v>3229.78955078125</v>
+        <v>2109.34033203125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3192.84130859375</v>
+        <v>2110.029541015625</v>
       </c>
       <c r="FR4" t="n">
-        <v>3117.08447265625</v>
+        <v>2094.61669921875</v>
       </c>
       <c r="FS4" t="n">
-        <v>3426.740234375</v>
+        <v>2074.20703125</v>
       </c>
       <c r="FT4" t="n">
-        <v>3219.49072265625</v>
+        <v>2081.500732421875</v>
       </c>
       <c r="FU4" t="n">
-        <v>3294.02685546875</v>
+        <v>2105.12890625</v>
       </c>
       <c r="FV4" t="n">
-        <v>3506.09423828125</v>
+        <v>2098.03369140625</v>
       </c>
       <c r="FW4" t="n">
-        <v>3302.049560546875</v>
+        <v>2094.761962890625</v>
       </c>
       <c r="FX4" t="n">
-        <v>3317.142822265625</v>
+        <v>2091.69970703125</v>
       </c>
       <c r="FY4" t="n">
-        <v>3304.954345703125</v>
+        <v>2095.628662109375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3282.086669921875</v>
+        <v>2081.25</v>
       </c>
       <c r="GA4" t="n">
-        <v>3157.97314453125</v>
+        <v>2086.25341796875</v>
       </c>
       <c r="GB4" t="n">
-        <v>3143.93212890625</v>
+        <v>2091.498046875</v>
       </c>
       <c r="GC4" t="n">
-        <v>3086.411865234375</v>
+        <v>2092.68603515625</v>
       </c>
       <c r="GD4" t="n">
-        <v>3066.25146484375</v>
+        <v>2107.66552734375</v>
       </c>
       <c r="GE4" t="n">
-        <v>3011.8974609375</v>
+        <v>2094.726318359375</v>
       </c>
       <c r="GF4" t="n">
-        <v>3000.478515625</v>
+        <v>2113.820556640625</v>
       </c>
       <c r="GG4" t="n">
-        <v>2986.8603515625</v>
+        <v>2114.10791015625</v>
       </c>
       <c r="GH4" t="n">
-        <v>2980.138916015625</v>
+        <v>2119.808349609375</v>
       </c>
       <c r="GI4" t="n">
-        <v>2945.820068359375</v>
+        <v>2124.218505859375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2886.976806640625</v>
+        <v>2117.198486328125</v>
       </c>
       <c r="GK4" t="n">
-        <v>2898.577880859375</v>
+        <v>2107.5966796875</v>
       </c>
       <c r="GL4" t="n">
-        <v>2836.105712890625</v>
+        <v>2106.437255859375</v>
       </c>
       <c r="GM4" t="n">
-        <v>2831.07373046875</v>
+        <v>2087.377197265625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2801.46484375</v>
+        <v>2060.748779296875</v>
       </c>
       <c r="GO4" t="n">
-        <v>2802.765869140625</v>
+        <v>2052.796630859375</v>
       </c>
       <c r="GP4" t="n">
-        <v>2754.633056640625</v>
+        <v>2062.863037109375</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2689.581787109375</v>
+        <v>2042.29296875</v>
       </c>
       <c r="GR4" t="n">
-        <v>2648.053466796875</v>
+        <v>2029.717041015625</v>
       </c>
       <c r="GS4" t="n">
-        <v>2557.151123046875</v>
+        <v>2088.319091796875</v>
       </c>
       <c r="GT4" t="n">
-        <v>2518.820556640625</v>
+        <v>2099.0361328125</v>
       </c>
       <c r="GU4" t="n">
-        <v>2429.911376953125</v>
+        <v>2045.138793945312</v>
       </c>
       <c r="GV4" t="n">
-        <v>2316.56787109375</v>
+        <v>2004.235595703125</v>
       </c>
       <c r="GW4" t="n">
-        <v>2153.5458984375</v>
+        <v>2008.333374023438</v>
       </c>
       <c r="GX4" t="n">
-        <v>2074.68359375</v>
+        <v>2029.164916992188</v>
       </c>
       <c r="GY4" t="n">
-        <v>1940.546020507812</v>
+        <v>2011.874267578125</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1899.18994140625</v>
+        <v>2028.639892578125</v>
       </c>
       <c r="HA4" t="n">
-        <v>1853.88623046875</v>
+        <v>2031.438232421875</v>
       </c>
       <c r="HB4" t="n">
-        <v>1753.525146484375</v>
+        <v>2028.998046875</v>
       </c>
       <c r="HC4" t="n">
-        <v>1684.885375976562</v>
+        <v>1974.688232421875</v>
       </c>
       <c r="HD4" t="n">
-        <v>1611.883911132812</v>
+        <v>2003.746215820312</v>
       </c>
       <c r="HE4" t="n">
-        <v>1598.564697265625</v>
+        <v>2024.137451171875</v>
       </c>
       <c r="HF4" t="n">
-        <v>1689.967041015625</v>
+        <v>2024.117431640625</v>
       </c>
       <c r="HG4" t="n">
-        <v>1633.361083984375</v>
+        <v>2007.186401367188</v>
       </c>
       <c r="HH4" t="n">
-        <v>1551.219116210938</v>
+        <v>1986.094970703125</v>
       </c>
       <c r="HI4" t="n">
-        <v>1490.89013671875</v>
+        <v>1985.603759765625</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1427.837280273438</v>
+        <v>2009.66796875</v>
       </c>
       <c r="HK4" t="n">
-        <v>1365.38037109375</v>
+        <v>1965.417114257812</v>
       </c>
       <c r="HL4" t="n">
-        <v>1292.201171875</v>
+        <v>1949.618896484375</v>
       </c>
       <c r="HM4" t="n">
-        <v>1213.798461914062</v>
+        <v>1942.72119140625</v>
       </c>
       <c r="HN4" t="n">
-        <v>1110.146728515625</v>
+        <v>1912.56640625</v>
       </c>
       <c r="HO4" t="n">
-        <v>1062.588989257812</v>
+        <v>1959.444458007812</v>
       </c>
       <c r="HP4" t="n">
-        <v>1014.773742675781</v>
+        <v>1948.900268554688</v>
       </c>
       <c r="HQ4" t="n">
-        <v>958.289306640625</v>
+        <v>1912.692260742188</v>
       </c>
       <c r="HR4" t="n">
-        <v>890.480224609375</v>
+        <v>1906.3203125</v>
       </c>
       <c r="HS4" t="n">
-        <v>830.7092895507812</v>
+        <v>1945.6845703125</v>
       </c>
       <c r="HT4" t="n">
-        <v>757.64208984375</v>
+        <v>1935.725219726562</v>
       </c>
       <c r="HU4" t="n">
-        <v>740.5650634765625</v>
+        <v>1881.205322265625</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1890.123657226562</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1888.53564453125</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1908.986328125</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1905.385009765625</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1913.866821289062</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1944.94482421875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1942.139526367188</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1944.0908203125</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1916.953125</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1884.034301757812</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1896.467529296875</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1907.106689453125</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1898.4072265625</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1932.458740234375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1921.463989257812</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1941.91943359375</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1935.22119140625</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1909.165771484375</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1899.707275390625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1943.828247070312</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1921.815551757812</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1902.43701171875</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1893.99658203125</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1889.500244140625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1913.03466796875</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1905.05224609375</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1885.32177734375</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1882.792236328125</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1881.979370117188</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>1880.576416015625</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1880.166748046875</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>1890.548217773438</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1887.81494140625</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1893.737548828125</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1854.150146484375</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1877.8544921875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1903.337646484375</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1909.68798828125</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1905.130249023438</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1905.477294921875</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1906.846923828125</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1933.262451171875</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1917.361083984375</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1909.04052734375</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1902.728271484375</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1920.960327148438</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1953.779907226562</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1909.65966796875</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1889.17919921875</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1943.7158203125</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1887.904174804688</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1897.145141601562</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1907.21044921875</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1911.958129882812</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1907.357543945312</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1908.02294921875</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1903.023193359375</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1922.776611328125</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1932.361206054688</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1924.821411132812</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1929.517822265625</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1947.744140625</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1981.772094726562</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1971.583618164062</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1937.652709960938</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1968.104858398438</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1970.132080078125</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1974.236450195312</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1976.274658203125</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1976.307373046875</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1965.373046875</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1969.556274414062</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1971.936889648438</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1968.15283203125</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1934.46875</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1965.687866210938</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1950.727172851562</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1916.160034179688</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1934.086303710938</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1936.1171875</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>1929.79638671875</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>1921.105346679688</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>1916.063842773438</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>1959.299560546875</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>1954.265747070312</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>1918.678955078125</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>1794.63134765625</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>1752.447631835938</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>2034.2939453125</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>1982.150024414062</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1939.285400390625</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1845.683837890625</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1768.060546875</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1676.175170898438</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1604.557373046875</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1552.092041015625</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1256.6396484375</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1174.369873046875</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1074.5791015625</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1074.620971679688</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1023.458923339844</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>954.4005737304688</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>818.0326538085938</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>881.9258422851562</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>808.859619140625</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>524.751708984375</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>730.1137084960938</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>689.6776123046875</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>660.0000610351562</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>645.7340087890625</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>642.2078857421875</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>642.7301025390625</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>709.4105224609375</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>774.186279296875</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>802.0573120117188</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>832.2860107421875</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>844.423095703125</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>866.107177734375</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>900.0667114257812</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>925.5476684570312</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>928.1265869140625</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>931.9443969726562</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>977.120849609375</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>989.7068481445312</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>986.3406982421875</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>986.5491943359375</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>959.5466918945312</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>816.9459838867188</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>675.0872802734375</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>640.6316528320312</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>679.0227661132812</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>710.8433837890625</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>658.0604858398438</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>651.2999877929688</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>649.2730712890625</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>636.8427124023438</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>631.5697631835938</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>600.818115234375</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>591.5369873046875</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>574.5831909179688</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>562.9328002929688</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>536.2555541992188</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>546.0623168945312</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>547.4937133789062</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>556.5123901367188</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>628.6170043945312</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>602.8994750976562</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>600.3536987304688</v>
       </c>
     </row>
   </sheetData>

--- a/left_knee_Data_Variable.xlsx
+++ b/left_knee_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>394.1000671386719</v>
+        <v>337.719482421875</v>
       </c>
       <c r="B2" t="n">
-        <v>398.3880004882812</v>
+        <v>339.5260009765625</v>
       </c>
       <c r="C2" t="n">
-        <v>401.2085266113281</v>
+        <v>340.5478515625</v>
       </c>
       <c r="D2" t="n">
-        <v>405.5587768554688</v>
+        <v>342.5155029296875</v>
       </c>
       <c r="E2" t="n">
-        <v>411.7179565429688</v>
+        <v>344.2613525390625</v>
       </c>
       <c r="F2" t="n">
-        <v>417.7596435546875</v>
+        <v>345.5680541992188</v>
       </c>
       <c r="G2" t="n">
-        <v>424.52490234375</v>
+        <v>346.6375427246094</v>
       </c>
       <c r="H2" t="n">
-        <v>432.0303955078125</v>
+        <v>348.4164733886719</v>
       </c>
       <c r="I2" t="n">
-        <v>439.4346618652344</v>
+        <v>349.5678405761719</v>
       </c>
       <c r="J2" t="n">
-        <v>444.1869812011719</v>
+        <v>351.4587707519531</v>
       </c>
       <c r="K2" t="n">
-        <v>448.5088500976562</v>
+        <v>352.7841186523438</v>
       </c>
       <c r="L2" t="n">
-        <v>451.1959228515625</v>
+        <v>353.9075012207031</v>
       </c>
       <c r="M2" t="n">
-        <v>476.6585693359375</v>
+        <v>356.9259033203125</v>
       </c>
       <c r="N2" t="n">
-        <v>476.5304870605469</v>
+        <v>359.7676086425781</v>
       </c>
       <c r="O2" t="n">
-        <v>483.4012451171875</v>
+        <v>387.9659729003906</v>
       </c>
       <c r="P2" t="n">
-        <v>479.1160583496094</v>
+        <v>387.3569946289062</v>
       </c>
       <c r="Q2" t="n">
-        <v>470.4421997070312</v>
+        <v>387.2459106445312</v>
       </c>
       <c r="R2" t="n">
-        <v>470.08251953125</v>
+        <v>386.4020385742188</v>
       </c>
       <c r="S2" t="n">
-        <v>469.4954223632812</v>
+        <v>385.3319702148438</v>
       </c>
       <c r="T2" t="n">
-        <v>467.4664001464844</v>
+        <v>384.4631652832031</v>
       </c>
       <c r="U2" t="n">
-        <v>464.7261962890625</v>
+        <v>383.9971313476562</v>
       </c>
       <c r="V2" t="n">
-        <v>462.5188598632812</v>
+        <v>383.0217895507812</v>
       </c>
       <c r="W2" t="n">
-        <v>453.6956176757812</v>
+        <v>381.6224365234375</v>
       </c>
       <c r="X2" t="n">
-        <v>458.559326171875</v>
+        <v>380.625244140625</v>
       </c>
       <c r="Y2" t="n">
-        <v>453.6328125</v>
+        <v>380.5478515625</v>
       </c>
       <c r="Z2" t="n">
-        <v>442.9159240722656</v>
+        <v>379.182373046875</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.660400390625</v>
+        <v>378.3471374511719</v>
       </c>
       <c r="AB2" t="n">
-        <v>436.6563110351562</v>
+        <v>377.4618225097656</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.6885681152344</v>
+        <v>375.8685607910156</v>
       </c>
       <c r="AD2" t="n">
-        <v>422.6392822265625</v>
+        <v>372.5906982421875</v>
       </c>
       <c r="AE2" t="n">
-        <v>420.7934265136719</v>
+        <v>368.1494140625</v>
       </c>
       <c r="AF2" t="n">
-        <v>419.457763671875</v>
+        <v>365.8264770507812</v>
       </c>
       <c r="AG2" t="n">
-        <v>418.8420104980469</v>
+        <v>362.7540283203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>418.5175170898438</v>
+        <v>361.7360229492188</v>
       </c>
       <c r="AI2" t="n">
-        <v>427.5323791503906</v>
+        <v>361.6321411132812</v>
       </c>
       <c r="AJ2" t="n">
-        <v>426.5556335449219</v>
+        <v>361.7312316894531</v>
       </c>
       <c r="AK2" t="n">
-        <v>425.8591003417969</v>
+        <v>362.530029296875</v>
       </c>
       <c r="AL2" t="n">
-        <v>423.5870666503906</v>
+        <v>363.4729614257812</v>
       </c>
       <c r="AM2" t="n">
-        <v>418.1185913085938</v>
+        <v>365.4073486328125</v>
       </c>
       <c r="AN2" t="n">
-        <v>415.2813110351562</v>
+        <v>367.7716369628906</v>
       </c>
       <c r="AO2" t="n">
-        <v>416.6787719726562</v>
+        <v>371.0867919921875</v>
       </c>
       <c r="AP2" t="n">
-        <v>416.9754638671875</v>
+        <v>371.0745544433594</v>
       </c>
       <c r="AQ2" t="n">
-        <v>417.0464782714844</v>
+        <v>370.1168518066406</v>
       </c>
       <c r="AR2" t="n">
-        <v>417.2368774414062</v>
+        <v>369.721923828125</v>
       </c>
       <c r="AS2" t="n">
-        <v>417.3096313476562</v>
+        <v>369.0133972167969</v>
       </c>
       <c r="AT2" t="n">
-        <v>417.0527954101562</v>
+        <v>368.3529357910156</v>
       </c>
       <c r="AU2" t="n">
-        <v>416.8318176269531</v>
+        <v>368.0935974121094</v>
       </c>
       <c r="AV2" t="n">
-        <v>416.4979858398438</v>
+        <v>367.8514404296875</v>
       </c>
       <c r="AW2" t="n">
-        <v>416.3362121582031</v>
+        <v>367.69189453125</v>
       </c>
       <c r="AX2" t="n">
-        <v>416.1659545898438</v>
+        <v>367.3437194824219</v>
       </c>
       <c r="AY2" t="n">
-        <v>415.4138488769531</v>
+        <v>367.2973327636719</v>
       </c>
       <c r="AZ2" t="n">
-        <v>413.0551147460938</v>
+        <v>367.3031005859375</v>
       </c>
       <c r="BA2" t="n">
-        <v>408.692138671875</v>
+        <v>367.6715087890625</v>
       </c>
       <c r="BB2" t="n">
-        <v>402.9880981445312</v>
+        <v>367.8327026367188</v>
       </c>
       <c r="BC2" t="n">
-        <v>399.7867431640625</v>
+        <v>368.1059265136719</v>
       </c>
       <c r="BD2" t="n">
-        <v>396.2945861816406</v>
+        <v>368.0102844238281</v>
       </c>
       <c r="BE2" t="n">
-        <v>395.4071655273438</v>
+        <v>367.9296264648438</v>
       </c>
       <c r="BF2" t="n">
-        <v>393.6323852539062</v>
+        <v>368.0531311035156</v>
       </c>
       <c r="BG2" t="n">
-        <v>392.0261840820312</v>
+        <v>368.0303344726562</v>
       </c>
       <c r="BH2" t="n">
-        <v>390.48486328125</v>
+        <v>368.037109375</v>
       </c>
       <c r="BI2" t="n">
-        <v>390.74365234375</v>
+        <v>368.1045532226562</v>
       </c>
       <c r="BJ2" t="n">
-        <v>390.865234375</v>
+        <v>368.5196533203125</v>
       </c>
       <c r="BK2" t="n">
-        <v>389.5150146484375</v>
+        <v>368.8102416992188</v>
       </c>
       <c r="BL2" t="n">
-        <v>387.1142883300781</v>
+        <v>368.5820922851562</v>
       </c>
       <c r="BM2" t="n">
-        <v>380.8970947265625</v>
+        <v>368.1301879882812</v>
       </c>
       <c r="BN2" t="n">
-        <v>372.8247680664062</v>
+        <v>367.9520263671875</v>
       </c>
       <c r="BO2" t="n">
-        <v>362.416748046875</v>
+        <v>367.6471557617188</v>
       </c>
       <c r="BP2" t="n">
-        <v>362.2036437988281</v>
+        <v>367.2879638671875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>360.8252563476562</v>
+        <v>367.0097351074219</v>
       </c>
       <c r="BR2" t="n">
-        <v>359.2620544433594</v>
+        <v>366.8265991210938</v>
       </c>
       <c r="BS2" t="n">
-        <v>360.1804809570312</v>
+        <v>366.819091796875</v>
       </c>
       <c r="BT2" t="n">
-        <v>361.1133117675781</v>
+        <v>367.0140991210938</v>
       </c>
       <c r="BU2" t="n">
-        <v>362.2002563476562</v>
+        <v>367.2555541992188</v>
       </c>
       <c r="BV2" t="n">
-        <v>362.466552734375</v>
+        <v>367.5593872070312</v>
       </c>
       <c r="BW2" t="n">
-        <v>362.8229370117188</v>
+        <v>367.9669189453125</v>
       </c>
       <c r="BX2" t="n">
-        <v>362.7319946289062</v>
+        <v>368.6240234375</v>
       </c>
       <c r="BY2" t="n">
-        <v>362.6126098632812</v>
+        <v>369.4464416503906</v>
       </c>
       <c r="BZ2" t="n">
-        <v>362.3428649902344</v>
+        <v>369.9576110839844</v>
       </c>
       <c r="CA2" t="n">
-        <v>362.050048828125</v>
+        <v>369.8970947265625</v>
       </c>
       <c r="CB2" t="n">
-        <v>362.2162170410156</v>
+        <v>370.0569458007812</v>
       </c>
       <c r="CC2" t="n">
-        <v>363.1756286621094</v>
+        <v>370.1151123046875</v>
       </c>
       <c r="CD2" t="n">
-        <v>367.3230285644531</v>
+        <v>370.576171875</v>
       </c>
       <c r="CE2" t="n">
-        <v>384.1946411132812</v>
+        <v>370.5704345703125</v>
       </c>
       <c r="CF2" t="n">
-        <v>387.1228637695312</v>
+        <v>370.6224975585938</v>
       </c>
       <c r="CG2" t="n">
-        <v>389.1802978515625</v>
+        <v>370.7743835449219</v>
       </c>
       <c r="CH2" t="n">
-        <v>394.3410034179688</v>
+        <v>370.93994140625</v>
       </c>
       <c r="CI2" t="n">
-        <v>401.9063110351562</v>
+        <v>370.9628601074219</v>
       </c>
       <c r="CJ2" t="n">
-        <v>402.580078125</v>
+        <v>370.6836242675781</v>
       </c>
       <c r="CK2" t="n">
-        <v>404.5299682617188</v>
+        <v>370.5444946289062</v>
       </c>
       <c r="CL2" t="n">
-        <v>404.6908264160156</v>
+        <v>370.5995483398438</v>
       </c>
       <c r="CM2" t="n">
-        <v>404.4843139648438</v>
+        <v>370.8626708984375</v>
       </c>
       <c r="CN2" t="n">
-        <v>404.468017578125</v>
+        <v>370.7208557128906</v>
       </c>
       <c r="CO2" t="n">
-        <v>405.1380615234375</v>
+        <v>370.5445556640625</v>
       </c>
       <c r="CP2" t="n">
-        <v>406.7242126464844</v>
+        <v>370.5656127929688</v>
       </c>
       <c r="CQ2" t="n">
-        <v>409.2363891601562</v>
+        <v>370.7374877929688</v>
       </c>
       <c r="CR2" t="n">
-        <v>414.353271484375</v>
+        <v>370.6923828125</v>
       </c>
       <c r="CS2" t="n">
-        <v>416.23095703125</v>
+        <v>370.697265625</v>
       </c>
       <c r="CT2" t="n">
-        <v>414.4440307617188</v>
+        <v>370.7022094726562</v>
       </c>
       <c r="CU2" t="n">
-        <v>413.3504028320312</v>
+        <v>370.7039794921875</v>
       </c>
       <c r="CV2" t="n">
-        <v>411.56591796875</v>
+        <v>370.7015686035156</v>
       </c>
       <c r="CW2" t="n">
-        <v>408.5516967773438</v>
+        <v>370.696533203125</v>
       </c>
       <c r="CX2" t="n">
-        <v>409.0475158691406</v>
+        <v>370.619873046875</v>
       </c>
       <c r="CY2" t="n">
-        <v>406.965576171875</v>
+        <v>370.4290466308594</v>
       </c>
       <c r="CZ2" t="n">
-        <v>390.5807189941406</v>
+        <v>370.3182373046875</v>
       </c>
       <c r="DA2" t="n">
-        <v>384.7748107910156</v>
+        <v>370.2095336914062</v>
       </c>
       <c r="DB2" t="n">
-        <v>383.7101440429688</v>
+        <v>370.1230163574219</v>
       </c>
       <c r="DC2" t="n">
-        <v>382.0170288085938</v>
+        <v>369.8783569335938</v>
       </c>
       <c r="DD2" t="n">
-        <v>381.9014892578125</v>
+        <v>369.7124938964844</v>
       </c>
       <c r="DE2" t="n">
-        <v>378.7525024414062</v>
+        <v>370.0884399414062</v>
       </c>
       <c r="DF2" t="n">
-        <v>376.0330810546875</v>
+        <v>370.0787658691406</v>
       </c>
       <c r="DG2" t="n">
-        <v>376.37841796875</v>
+        <v>370.1193237304688</v>
       </c>
       <c r="DH2" t="n">
-        <v>376.4131469726562</v>
+        <v>370.1461791992188</v>
       </c>
       <c r="DI2" t="n">
-        <v>376.10693359375</v>
+        <v>370.241455078125</v>
       </c>
       <c r="DJ2" t="n">
-        <v>375.2005004882812</v>
+        <v>370.2746276855469</v>
       </c>
       <c r="DK2" t="n">
-        <v>373.46337890625</v>
+        <v>369.4953002929688</v>
       </c>
       <c r="DL2" t="n">
-        <v>372.1856689453125</v>
+        <v>368.9080200195312</v>
       </c>
       <c r="DM2" t="n">
-        <v>371.6723937988281</v>
+        <v>368.2784423828125</v>
       </c>
       <c r="DN2" t="n">
-        <v>370.7207946777344</v>
+        <v>368.300048828125</v>
       </c>
       <c r="DO2" t="n">
-        <v>368.7320556640625</v>
+        <v>368.1422119140625</v>
       </c>
       <c r="DP2" t="n">
-        <v>365.19482421875</v>
+        <v>368.0469055175781</v>
       </c>
       <c r="DQ2" t="n">
-        <v>361.6093139648438</v>
+        <v>367.8936157226562</v>
       </c>
       <c r="DR2" t="n">
-        <v>361.4162902832031</v>
+        <v>368.0925903320312</v>
       </c>
       <c r="DS2" t="n">
-        <v>361.2149658203125</v>
+        <v>368.138916015625</v>
       </c>
       <c r="DT2" t="n">
-        <v>361.0443115234375</v>
+        <v>367.900390625</v>
       </c>
       <c r="DU2" t="n">
-        <v>360.9711303710938</v>
+        <v>367.6074829101562</v>
       </c>
       <c r="DV2" t="n">
-        <v>360.9287109375</v>
+        <v>366.7982482910156</v>
       </c>
       <c r="DW2" t="n">
-        <v>360.8422241210938</v>
+        <v>366.1957092285156</v>
       </c>
       <c r="DX2" t="n">
-        <v>360.9949340820312</v>
+        <v>366.31689453125</v>
       </c>
       <c r="DY2" t="n">
-        <v>362.2622375488281</v>
+        <v>366.9662780761719</v>
       </c>
       <c r="DZ2" t="n">
-        <v>375.7449340820312</v>
+        <v>368.0510864257812</v>
       </c>
       <c r="EA2" t="n">
-        <v>383.8696594238281</v>
+        <v>368.6168823242188</v>
       </c>
       <c r="EB2" t="n">
-        <v>392.335205078125</v>
+        <v>371.3912963867188</v>
       </c>
       <c r="EC2" t="n">
-        <v>398.822021484375</v>
+        <v>376.6427612304688</v>
       </c>
       <c r="ED2" t="n">
-        <v>403.9282836914062</v>
+        <v>397.2962036132812</v>
       </c>
       <c r="EE2" t="n">
-        <v>417.9019775390625</v>
+        <v>402.1946716308594</v>
       </c>
       <c r="EF2" t="n">
-        <v>441.4373168945312</v>
+        <v>400.6986083984375</v>
       </c>
       <c r="EG2" t="n">
-        <v>459.6255798339844</v>
+        <v>399.9262084960938</v>
       </c>
       <c r="EH2" t="n">
-        <v>466.314453125</v>
+        <v>394.7839050292969</v>
       </c>
       <c r="EI2" t="n">
-        <v>481.3580322265625</v>
+        <v>391.8153381347656</v>
       </c>
       <c r="EJ2" t="n">
-        <v>484.942138671875</v>
+        <v>385.3769226074219</v>
       </c>
       <c r="EK2" t="n">
-        <v>485.6658935546875</v>
+        <v>378.3216857910156</v>
       </c>
       <c r="EL2" t="n">
-        <v>480.5404968261719</v>
+        <v>373.6927795410156</v>
       </c>
       <c r="EM2" t="n">
-        <v>480.5790405273438</v>
+        <v>370.7850646972656</v>
       </c>
       <c r="EN2" t="n">
-        <v>491.80224609375</v>
+        <v>367.978515625</v>
       </c>
       <c r="EO2" t="n">
-        <v>498.0474243164062</v>
+        <v>368.666015625</v>
       </c>
       <c r="EP2" t="n">
-        <v>497.6103515625</v>
+        <v>369.05908203125</v>
       </c>
       <c r="EQ2" t="n">
-        <v>502.78662109375</v>
+        <v>368.7537231445312</v>
       </c>
       <c r="ER2" t="n">
-        <v>506.2648315429688</v>
+        <v>369.0207214355469</v>
       </c>
       <c r="ES2" t="n">
-        <v>505.9500732421875</v>
+        <v>369.0069274902344</v>
       </c>
       <c r="ET2" t="n">
-        <v>504.4828796386719</v>
+        <v>368.8335876464844</v>
       </c>
       <c r="EU2" t="n">
-        <v>504.32080078125</v>
+        <v>366.4915161132812</v>
       </c>
       <c r="EV2" t="n">
-        <v>505.5477294921875</v>
+        <v>366.034423828125</v>
       </c>
       <c r="EW2" t="n">
-        <v>502.225341796875</v>
+        <v>366.320556640625</v>
       </c>
       <c r="EX2" t="n">
-        <v>498.1341552734375</v>
+        <v>365.7249755859375</v>
       </c>
       <c r="EY2" t="n">
-        <v>494.1163635253906</v>
+        <v>365.1341247558594</v>
       </c>
       <c r="EZ2" t="n">
-        <v>490.8057861328125</v>
+        <v>362.1575927734375</v>
       </c>
       <c r="FA2" t="n">
-        <v>488.9778137207031</v>
+        <v>359.6976318359375</v>
       </c>
       <c r="FB2" t="n">
-        <v>494.4285278320312</v>
+        <v>358.3721313476562</v>
       </c>
       <c r="FC2" t="n">
-        <v>501.0142822265625</v>
+        <v>359.3631286621094</v>
       </c>
       <c r="FD2" t="n">
-        <v>496.9048461914062</v>
+        <v>367.8232421875</v>
       </c>
       <c r="FE2" t="n">
-        <v>492.92822265625</v>
+        <v>370.4937744140625</v>
       </c>
       <c r="FF2" t="n">
-        <v>491.4987182617188</v>
+        <v>365.2451171875</v>
       </c>
       <c r="FG2" t="n">
-        <v>484.951171875</v>
+        <v>365.2990112304688</v>
       </c>
       <c r="FH2" t="n">
-        <v>482.8404235839844</v>
+        <v>365.8393859863281</v>
       </c>
       <c r="FI2" t="n">
-        <v>473.720947265625</v>
+        <v>367.3104858398438</v>
       </c>
       <c r="FJ2" t="n">
-        <v>471.9579467773438</v>
+        <v>370.7731323242188</v>
       </c>
       <c r="FK2" t="n">
-        <v>476.2175903320312</v>
+        <v>378.8215637207031</v>
       </c>
       <c r="FL2" t="n">
-        <v>473.7606201171875</v>
+        <v>381.7529907226562</v>
       </c>
       <c r="FM2" t="n">
-        <v>463.560546875</v>
+        <v>377.4964904785156</v>
       </c>
       <c r="FN2" t="n">
-        <v>457.7567749023438</v>
+        <v>376.3764038085938</v>
       </c>
       <c r="FO2" t="n">
-        <v>453.8747863769531</v>
+        <v>374.7753295898438</v>
       </c>
       <c r="FP2" t="n">
-        <v>450.8892211914062</v>
+        <v>374.9342041015625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>450.611572265625</v>
+        <v>375.1322021484375</v>
       </c>
       <c r="FR2" t="n">
-        <v>450.5361938476562</v>
+        <v>376.2484130859375</v>
       </c>
       <c r="FS2" t="n">
-        <v>450.89111328125</v>
+        <v>376.8742370605469</v>
       </c>
       <c r="FT2" t="n">
-        <v>448.14404296875</v>
+        <v>376.7448120117188</v>
       </c>
       <c r="FU2" t="n">
-        <v>444.9825439453125</v>
+        <v>372.7762451171875</v>
       </c>
       <c r="FV2" t="n">
-        <v>441.1585998535156</v>
+        <v>367.0592956542969</v>
       </c>
       <c r="FW2" t="n">
-        <v>440.2716674804688</v>
+        <v>362.4897766113281</v>
       </c>
       <c r="FX2" t="n">
-        <v>439.7958068847656</v>
+        <v>362.6179504394531</v>
       </c>
       <c r="FY2" t="n">
-        <v>439.7162475585938</v>
+        <v>361.9300537109375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>440.82666015625</v>
+        <v>361.4079284667969</v>
       </c>
       <c r="GA2" t="n">
-        <v>439.7598876953125</v>
+        <v>361.5523681640625</v>
       </c>
       <c r="GB2" t="n">
-        <v>430.3002319335938</v>
+        <v>363.1486206054688</v>
       </c>
       <c r="GC2" t="n">
-        <v>425.7265625</v>
+        <v>365.168701171875</v>
       </c>
       <c r="GD2" t="n">
-        <v>419.6650390625</v>
+        <v>365.2282104492188</v>
       </c>
       <c r="GE2" t="n">
-        <v>416.1483764648438</v>
+        <v>362.3782653808594</v>
       </c>
       <c r="GF2" t="n">
-        <v>412.90771484375</v>
+        <v>363.6194152832031</v>
       </c>
       <c r="GG2" t="n">
-        <v>412.9306640625</v>
+        <v>361.4825439453125</v>
       </c>
       <c r="GH2" t="n">
-        <v>412.6672668457031</v>
+        <v>338.6157531738281</v>
       </c>
       <c r="GI2" t="n">
-        <v>411.3641967773438</v>
+        <v>328.44287109375</v>
       </c>
       <c r="GJ2" t="n">
-        <v>409.4560546875</v>
+        <v>330.332275390625</v>
       </c>
       <c r="GK2" t="n">
-        <v>407.4437866210938</v>
+        <v>352.1492309570312</v>
       </c>
       <c r="GL2" t="n">
-        <v>405.8658142089844</v>
+        <v>351.2755737304688</v>
       </c>
       <c r="GM2" t="n">
-        <v>400.5303649902344</v>
+        <v>349.1201171875</v>
       </c>
       <c r="GN2" t="n">
-        <v>400.7631225585938</v>
+        <v>348.3594055175781</v>
       </c>
       <c r="GO2" t="n">
-        <v>401.9615173339844</v>
+        <v>346.5228271484375</v>
       </c>
       <c r="GP2" t="n">
-        <v>400.2856750488281</v>
+        <v>344.6471557617188</v>
       </c>
       <c r="GQ2" t="n">
-        <v>381.8453979492188</v>
+        <v>346.6128845214844</v>
       </c>
       <c r="GR2" t="n">
-        <v>380.7874755859375</v>
+        <v>345.4327392578125</v>
       </c>
       <c r="GS2" t="n">
-        <v>383.943115234375</v>
+        <v>342.7249450683594</v>
       </c>
       <c r="GT2" t="n">
-        <v>380.9178466796875</v>
+        <v>338.1744995117188</v>
       </c>
       <c r="GU2" t="n">
-        <v>370.7533264160156</v>
+        <v>327.1191711425781</v>
       </c>
       <c r="GV2" t="n">
-        <v>363.9130249023438</v>
+        <v>319.5249938964844</v>
       </c>
       <c r="GW2" t="n">
-        <v>361.48583984375</v>
+        <v>310.8721313476562</v>
       </c>
       <c r="GX2" t="n">
-        <v>356.5858764648438</v>
+        <v>298.9801025390625</v>
       </c>
       <c r="GY2" t="n">
-        <v>356.419921875</v>
+        <v>287.9964904785156</v>
       </c>
       <c r="GZ2" t="n">
-        <v>356.3130493164062</v>
+        <v>274.5212097167969</v>
       </c>
       <c r="HA2" t="n">
-        <v>356.5941772460938</v>
+        <v>235.0695190429688</v>
       </c>
       <c r="HB2" t="n">
-        <v>356.5667724609375</v>
+        <v>213.1099700927734</v>
       </c>
       <c r="HC2" t="n">
-        <v>355.8569030761719</v>
+        <v>202.2501220703125</v>
       </c>
       <c r="HD2" t="n">
-        <v>355.5443115234375</v>
+        <v>191.1661071777344</v>
       </c>
       <c r="HE2" t="n">
-        <v>357.0390014648438</v>
+        <v>182.4662933349609</v>
       </c>
       <c r="HF2" t="n">
-        <v>357.9027099609375</v>
+        <v>180.8108673095703</v>
       </c>
       <c r="HG2" t="n">
-        <v>356.8586730957031</v>
+        <v>182.1453094482422</v>
       </c>
       <c r="HH2" t="n">
-        <v>352.8662109375</v>
+        <v>188.3867645263672</v>
       </c>
       <c r="HI2" t="n">
-        <v>349.9745178222656</v>
+        <v>202.23046875</v>
       </c>
       <c r="HJ2" t="n">
-        <v>352.4576416015625</v>
+        <v>205.0429077148438</v>
       </c>
       <c r="HK2" t="n">
-        <v>366.717529296875</v>
+        <v>212.1137237548828</v>
       </c>
       <c r="HL2" t="n">
-        <v>390.357666015625</v>
+        <v>219.7646789550781</v>
       </c>
       <c r="HM2" t="n">
-        <v>397.9127502441406</v>
+        <v>222.3563995361328</v>
       </c>
       <c r="HN2" t="n">
-        <v>405.13037109375</v>
+        <v>230.1041870117188</v>
       </c>
       <c r="HO2" t="n">
-        <v>416.385009765625</v>
+        <v>248.0334167480469</v>
       </c>
       <c r="HP2" t="n">
-        <v>423.6084289550781</v>
+        <v>269.892578125</v>
       </c>
       <c r="HQ2" t="n">
-        <v>426.4493408203125</v>
+        <v>279.7071838378906</v>
       </c>
       <c r="HR2" t="n">
-        <v>431.1705017089844</v>
+        <v>271.2236633300781</v>
       </c>
       <c r="HS2" t="n">
-        <v>435.0401000976562</v>
+        <v>267.4280700683594</v>
       </c>
       <c r="HT2" t="n">
-        <v>436.3053588867188</v>
+        <v>272.1866455078125</v>
       </c>
       <c r="HU2" t="n">
-        <v>443.7617797851562</v>
+        <v>278.7703552246094</v>
       </c>
       <c r="HV2" t="n">
-        <v>443.6232299804688</v>
+        <v>275.1021728515625</v>
       </c>
       <c r="HW2" t="n">
-        <v>444.1936645507812</v>
+        <v>319.3245849609375</v>
       </c>
       <c r="HX2" t="n">
-        <v>441.509765625</v>
+        <v>338.9822082519531</v>
       </c>
       <c r="HY2" t="n">
-        <v>441.9253845214844</v>
+        <v>359.1691284179688</v>
       </c>
       <c r="HZ2" t="n">
-        <v>440.8695068359375</v>
+        <v>361.0033874511719</v>
       </c>
       <c r="IA2" t="n">
-        <v>439.4184875488281</v>
+        <v>365.7109985351562</v>
       </c>
       <c r="IB2" t="n">
-        <v>438.9388427734375</v>
+        <v>376.4534301757812</v>
       </c>
       <c r="IC2" t="n">
-        <v>437.1221923828125</v>
+        <v>388.9330749511719</v>
       </c>
       <c r="ID2" t="n">
-        <v>434.4195556640625</v>
+        <v>382.1817016601562</v>
       </c>
       <c r="IE2" t="n">
-        <v>435.7369689941406</v>
+        <v>395.4159851074219</v>
       </c>
       <c r="IF2" t="n">
-        <v>433.568115234375</v>
+        <v>397.9660339355469</v>
       </c>
       <c r="IG2" t="n">
-        <v>430.1516723632812</v>
+        <v>386.295654296875</v>
       </c>
       <c r="IH2" t="n">
-        <v>432.6365966796875</v>
+        <v>381.5811157226562</v>
       </c>
       <c r="II2" t="n">
-        <v>430.6475219726562</v>
+        <v>379.094970703125</v>
       </c>
       <c r="IJ2" t="n">
-        <v>425.078857421875</v>
+        <v>374.4107666015625</v>
       </c>
       <c r="IK2" t="n">
-        <v>416.318115234375</v>
+        <v>375.9396667480469</v>
       </c>
       <c r="IL2" t="n">
-        <v>412.4030151367188</v>
+        <v>351.956787109375</v>
       </c>
       <c r="IM2" t="n">
-        <v>405.9515075683594</v>
+        <v>340.8908386230469</v>
       </c>
       <c r="IN2" t="n">
-        <v>394.8918151855469</v>
+        <v>305.1696472167969</v>
       </c>
       <c r="IO2" t="n">
-        <v>394.8391418457031</v>
+        <v>302.494873046875</v>
       </c>
       <c r="IP2" t="n">
-        <v>388.7252502441406</v>
+        <v>301.9588623046875</v>
       </c>
       <c r="IQ2" t="n">
-        <v>392.2891235351562</v>
+        <v>341.5381469726562</v>
       </c>
       <c r="IR2" t="n">
-        <v>370.2755126953125</v>
+        <v>312.826171875</v>
       </c>
       <c r="IS2" t="n">
-        <v>355.9842529296875</v>
+        <v>322.4910888671875</v>
       </c>
       <c r="IT2" t="n">
-        <v>352.0248718261719</v>
+        <v>325.512451171875</v>
       </c>
       <c r="IU2" t="n">
-        <v>352.7486877441406</v>
+        <v>301.9288635253906</v>
       </c>
       <c r="IV2" t="n">
-        <v>356.0601806640625</v>
+        <v>327.5205078125</v>
       </c>
       <c r="IW2" t="n">
-        <v>355.5781860351562</v>
+        <v>326.1857299804688</v>
       </c>
       <c r="IX2" t="n">
-        <v>354.2184753417969</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>354.3189697265625</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>354.2621459960938</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>354.7578430175781</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>359.0599975585938</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>358.7743530273438</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>390.9000244140625</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>386.8038330078125</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>388.3521728515625</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>399.9856567382812</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>400.7662353515625</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>405.4101867675781</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>411.6637573242188</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>416.0278930664062</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>419.4415893554688</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>420.1405639648438</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>422.3355712890625</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>421.890380859375</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>420.9496459960938</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>423.8892211914062</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>429.6912841796875</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>425.2758483886719</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>428.9609375</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>428.68115234375</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>428.3282470703125</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>428.1842651367188</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>428.3017578125</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>428.1920776367188</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>428.549560546875</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>428.6759643554688</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>427.8441772460938</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>427.8688354492188</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>427.5729675292969</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>425.1268920898438</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>419.7601318359375</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>420.289306640625</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>419.8047180175781</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>420.2391052246094</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>420.278564453125</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>419.9205322265625</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>420.1656494140625</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>420.1649475097656</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>419.6275329589844</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>419.9755249023438</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>420.2711486816406</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>420.1112365722656</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>419.9701538085938</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>420.9564208984375</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>422.99853515625</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>428.0958862304688</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>427.109619140625</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>427.14697265625</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>426.9600830078125</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>427.9149780273438</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>436.522705078125</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>425.68017578125</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>427.1531372070312</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>434.0514831542969</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>456.7020263671875</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>462.4091796875</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>441.5069580078125</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>445.5275268554688</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>447.0312805175781</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>453.4042358398438</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>458.1202697753906</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>467.1482543945312</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>470.9108276367188</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>477.4383239746094</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>519.0559692382812</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>525.3513793945312</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>504.2181701660156</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>418.7893981933594</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>426.5713806152344</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>438.3318481445312</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>418.2978820800781</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>560.7265014648438</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>567.5816040039062</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>562.6256713867188</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>561.446533203125</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>558.1993408203125</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>545.058837890625</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>523.0096435546875</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>496.8876647949219</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>471.5113525390625</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>438.0411987304688</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>418.2427368164062</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>413.3920593261719</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>407.6357421875</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>412.1669921875</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>416.5643005371094</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>419.8328247070312</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>427.9530029296875</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>431.1635131835938</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>450.60888671875</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>451.7095336914062</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>455.2626342773438</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>458.3147888183594</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>455.6181335449219</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>427.4735107421875</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>411.8396606445312</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>434.8992614746094</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>430.7373657226562</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>370.6410217285156</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>367.7087707519531</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>362.2106323242188</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>394.3685913085938</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>408.933837890625</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>406.9538879394531</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>430.7017211914062</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>424.9322509765625</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>418.1271362304688</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>397.8768310546875</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>311.8633117675781</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>415.8923950195312</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>427.413818359375</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>404.0252685546875</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>389.5523376464844</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>419.7857055664062</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>386.5408935546875</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>422.6839599609375</v>
+        <v>323.7100830078125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>543.9564208984375</v>
+        <v>567.9645385742188</v>
       </c>
       <c r="B3" t="n">
-        <v>540.2160034179688</v>
+        <v>561.82421875</v>
       </c>
       <c r="C3" t="n">
-        <v>540.7760009765625</v>
+        <v>560.008056640625</v>
       </c>
       <c r="D3" t="n">
-        <v>539.8751831054688</v>
+        <v>555.2796020507812</v>
       </c>
       <c r="E3" t="n">
-        <v>539.5660400390625</v>
+        <v>549.8291625976562</v>
       </c>
       <c r="F3" t="n">
-        <v>539.0349731445312</v>
+        <v>546.187744140625</v>
       </c>
       <c r="G3" t="n">
-        <v>538.0071411132812</v>
+        <v>542.8917846679688</v>
       </c>
       <c r="H3" t="n">
-        <v>536.3302612304688</v>
+        <v>539.8590087890625</v>
       </c>
       <c r="I3" t="n">
-        <v>532.3771362304688</v>
+        <v>536.71923828125</v>
       </c>
       <c r="J3" t="n">
-        <v>528.3480224609375</v>
+        <v>533.789306640625</v>
       </c>
       <c r="K3" t="n">
-        <v>522.175048828125</v>
+        <v>535.0367431640625</v>
       </c>
       <c r="L3" t="n">
-        <v>519.0223999023438</v>
+        <v>534.3541870117188</v>
       </c>
       <c r="M3" t="n">
-        <v>553.7167358398438</v>
+        <v>531.1749267578125</v>
       </c>
       <c r="N3" t="n">
-        <v>540.7587890625</v>
+        <v>528.7716674804688</v>
       </c>
       <c r="O3" t="n">
-        <v>536.385498046875</v>
+        <v>530.4647216796875</v>
       </c>
       <c r="P3" t="n">
-        <v>529.9674072265625</v>
+        <v>526.3439331054688</v>
       </c>
       <c r="Q3" t="n">
-        <v>526.3827514648438</v>
+        <v>522.8154907226562</v>
       </c>
       <c r="R3" t="n">
-        <v>525.044921875</v>
+        <v>522.3468627929688</v>
       </c>
       <c r="S3" t="n">
-        <v>524.1790771484375</v>
+        <v>521.5119018554688</v>
       </c>
       <c r="T3" t="n">
-        <v>517.95068359375</v>
+        <v>519.9840087890625</v>
       </c>
       <c r="U3" t="n">
-        <v>514.7468872070312</v>
+        <v>517.4340209960938</v>
       </c>
       <c r="V3" t="n">
-        <v>515.260498046875</v>
+        <v>516.4011840820312</v>
       </c>
       <c r="W3" t="n">
-        <v>513.743896484375</v>
+        <v>515.3701782226562</v>
       </c>
       <c r="X3" t="n">
-        <v>515.2900390625</v>
+        <v>513.1818237304688</v>
       </c>
       <c r="Y3" t="n">
-        <v>526.996337890625</v>
+        <v>510.0807495117188</v>
       </c>
       <c r="Z3" t="n">
-        <v>534.7108154296875</v>
+        <v>506.4341430664062</v>
       </c>
       <c r="AA3" t="n">
-        <v>533.863037109375</v>
+        <v>504.7529296875</v>
       </c>
       <c r="AB3" t="n">
-        <v>533.9072265625</v>
+        <v>503.4420166015625</v>
       </c>
       <c r="AC3" t="n">
-        <v>530.0426025390625</v>
+        <v>500.9993896484375</v>
       </c>
       <c r="AD3" t="n">
-        <v>499.8168334960938</v>
+        <v>500.1205444335938</v>
       </c>
       <c r="AE3" t="n">
-        <v>499.3941955566406</v>
+        <v>498.801025390625</v>
       </c>
       <c r="AF3" t="n">
-        <v>495.9817199707031</v>
+        <v>493.7511596679688</v>
       </c>
       <c r="AG3" t="n">
-        <v>494.4069213867188</v>
+        <v>489.6253967285156</v>
       </c>
       <c r="AH3" t="n">
-        <v>483.7848510742188</v>
+        <v>487.844482421875</v>
       </c>
       <c r="AI3" t="n">
-        <v>503.3466796875</v>
+        <v>485.1549377441406</v>
       </c>
       <c r="AJ3" t="n">
-        <v>499.2650451660156</v>
+        <v>483.53955078125</v>
       </c>
       <c r="AK3" t="n">
-        <v>501.2749633789062</v>
+        <v>481.408203125</v>
       </c>
       <c r="AL3" t="n">
-        <v>504.2135314941406</v>
+        <v>479.1137390136719</v>
       </c>
       <c r="AM3" t="n">
-        <v>511.3920593261719</v>
+        <v>478.4851684570312</v>
       </c>
       <c r="AN3" t="n">
-        <v>511.650634765625</v>
+        <v>479.5276489257812</v>
       </c>
       <c r="AO3" t="n">
-        <v>513.1556396484375</v>
+        <v>481.2309875488281</v>
       </c>
       <c r="AP3" t="n">
-        <v>515.9710083007812</v>
+        <v>483.4049682617188</v>
       </c>
       <c r="AQ3" t="n">
-        <v>519.7849731445312</v>
+        <v>485.0405578613281</v>
       </c>
       <c r="AR3" t="n">
-        <v>521.830078125</v>
+        <v>486.9994506835938</v>
       </c>
       <c r="AS3" t="n">
-        <v>522.8943481445312</v>
+        <v>487.7300415039062</v>
       </c>
       <c r="AT3" t="n">
-        <v>524.2981567382812</v>
+        <v>487.090576171875</v>
       </c>
       <c r="AU3" t="n">
-        <v>525.537353515625</v>
+        <v>485.7492370605469</v>
       </c>
       <c r="AV3" t="n">
-        <v>524.5638427734375</v>
+        <v>485.4389038085938</v>
       </c>
       <c r="AW3" t="n">
-        <v>523.4556274414062</v>
+        <v>485.890625</v>
       </c>
       <c r="AX3" t="n">
-        <v>524.91357421875</v>
+        <v>485.9727172851562</v>
       </c>
       <c r="AY3" t="n">
-        <v>527.6350708007812</v>
+        <v>486.2252502441406</v>
       </c>
       <c r="AZ3" t="n">
-        <v>530.253662109375</v>
+        <v>486.3838500976562</v>
       </c>
       <c r="BA3" t="n">
-        <v>533.3992919921875</v>
+        <v>486.3925476074219</v>
       </c>
       <c r="BB3" t="n">
-        <v>535.0352783203125</v>
+        <v>486.3177795410156</v>
       </c>
       <c r="BC3" t="n">
-        <v>535.4828491210938</v>
+        <v>486.3094177246094</v>
       </c>
       <c r="BD3" t="n">
-        <v>535.8948974609375</v>
+        <v>486.0530700683594</v>
       </c>
       <c r="BE3" t="n">
-        <v>535.4271850585938</v>
+        <v>485.784423828125</v>
       </c>
       <c r="BF3" t="n">
-        <v>531.363525390625</v>
+        <v>485.3751831054688</v>
       </c>
       <c r="BG3" t="n">
-        <v>526.9056396484375</v>
+        <v>484.9335327148438</v>
       </c>
       <c r="BH3" t="n">
-        <v>522.7077026367188</v>
+        <v>484.352294921875</v>
       </c>
       <c r="BI3" t="n">
-        <v>519.1629028320312</v>
+        <v>483.8243408203125</v>
       </c>
       <c r="BJ3" t="n">
-        <v>518.2020263671875</v>
+        <v>482.781494140625</v>
       </c>
       <c r="BK3" t="n">
-        <v>518.3984985351562</v>
+        <v>482.2810974121094</v>
       </c>
       <c r="BL3" t="n">
-        <v>520.8956298828125</v>
+        <v>482.526611328125</v>
       </c>
       <c r="BM3" t="n">
-        <v>523.3953247070312</v>
+        <v>482.974365234375</v>
       </c>
       <c r="BN3" t="n">
-        <v>525.0460205078125</v>
+        <v>483.1039733886719</v>
       </c>
       <c r="BO3" t="n">
-        <v>529.0482177734375</v>
+        <v>483.6338500976562</v>
       </c>
       <c r="BP3" t="n">
-        <v>530.7915649414062</v>
+        <v>484.1927795410156</v>
       </c>
       <c r="BQ3" t="n">
-        <v>532.9965209960938</v>
+        <v>484.5213317871094</v>
       </c>
       <c r="BR3" t="n">
-        <v>534.2012939453125</v>
+        <v>484.3649597167969</v>
       </c>
       <c r="BS3" t="n">
-        <v>534.6483154296875</v>
+        <v>484.12451171875</v>
       </c>
       <c r="BT3" t="n">
-        <v>534.416259765625</v>
+        <v>483.8317565917969</v>
       </c>
       <c r="BU3" t="n">
-        <v>536.0955810546875</v>
+        <v>483.6157531738281</v>
       </c>
       <c r="BV3" t="n">
-        <v>537.7796020507812</v>
+        <v>483.6890563964844</v>
       </c>
       <c r="BW3" t="n">
-        <v>539.4732666015625</v>
+        <v>483.6534118652344</v>
       </c>
       <c r="BX3" t="n">
-        <v>540.80322265625</v>
+        <v>483.6796875</v>
       </c>
       <c r="BY3" t="n">
-        <v>542.7772827148438</v>
+        <v>483.6804809570312</v>
       </c>
       <c r="BZ3" t="n">
-        <v>543.5655517578125</v>
+        <v>483.6782531738281</v>
       </c>
       <c r="CA3" t="n">
-        <v>540.7811889648438</v>
+        <v>483.6120300292969</v>
       </c>
       <c r="CB3" t="n">
-        <v>538.871337890625</v>
+        <v>483.5411376953125</v>
       </c>
       <c r="CC3" t="n">
-        <v>536.7450561523438</v>
+        <v>483.4329833984375</v>
       </c>
       <c r="CD3" t="n">
-        <v>536.0616455078125</v>
+        <v>483.3461303710938</v>
       </c>
       <c r="CE3" t="n">
-        <v>536.6251220703125</v>
+        <v>483.2076721191406</v>
       </c>
       <c r="CF3" t="n">
-        <v>537.1930541992188</v>
+        <v>483.1172485351562</v>
       </c>
       <c r="CG3" t="n">
-        <v>538.2466430664062</v>
+        <v>483.0004272460938</v>
       </c>
       <c r="CH3" t="n">
-        <v>540.6015625</v>
+        <v>482.8735961914062</v>
       </c>
       <c r="CI3" t="n">
-        <v>541.516357421875</v>
+        <v>482.7206115722656</v>
       </c>
       <c r="CJ3" t="n">
-        <v>545.3123779296875</v>
+        <v>482.8912963867188</v>
       </c>
       <c r="CK3" t="n">
-        <v>547.2943115234375</v>
+        <v>482.9218444824219</v>
       </c>
       <c r="CL3" t="n">
-        <v>548.8770141601562</v>
+        <v>482.8045349121094</v>
       </c>
       <c r="CM3" t="n">
-        <v>549.070556640625</v>
+        <v>482.5646362304688</v>
       </c>
       <c r="CN3" t="n">
-        <v>550.5282592773438</v>
+        <v>482.5960388183594</v>
       </c>
       <c r="CO3" t="n">
-        <v>550.9217529296875</v>
+        <v>482.6990356445312</v>
       </c>
       <c r="CP3" t="n">
-        <v>551.5784912109375</v>
+        <v>482.702392578125</v>
       </c>
       <c r="CQ3" t="n">
-        <v>552.5560302734375</v>
+        <v>482.71826171875</v>
       </c>
       <c r="CR3" t="n">
-        <v>553.097900390625</v>
+        <v>482.7044067382812</v>
       </c>
       <c r="CS3" t="n">
-        <v>553.45751953125</v>
+        <v>482.7002868652344</v>
       </c>
       <c r="CT3" t="n">
-        <v>553.9915161132812</v>
+        <v>482.703369140625</v>
       </c>
       <c r="CU3" t="n">
-        <v>554.365234375</v>
+        <v>482.6989135742188</v>
       </c>
       <c r="CV3" t="n">
-        <v>554.2868041992188</v>
+        <v>482.705322265625</v>
       </c>
       <c r="CW3" t="n">
-        <v>553.7734985351562</v>
+        <v>482.7193603515625</v>
       </c>
       <c r="CX3" t="n">
-        <v>552.8641967773438</v>
+        <v>482.7478332519531</v>
       </c>
       <c r="CY3" t="n">
-        <v>551.3202514648438</v>
+        <v>482.8569641113281</v>
       </c>
       <c r="CZ3" t="n">
-        <v>549.161865234375</v>
+        <v>482.9197387695312</v>
       </c>
       <c r="DA3" t="n">
-        <v>548.0350341796875</v>
+        <v>482.9842224121094</v>
       </c>
       <c r="DB3" t="n">
-        <v>547.9345092773438</v>
+        <v>483.0697021484375</v>
       </c>
       <c r="DC3" t="n">
-        <v>548.4112548828125</v>
+        <v>483.2029113769531</v>
       </c>
       <c r="DD3" t="n">
-        <v>548.2864990234375</v>
+        <v>483.3410949707031</v>
       </c>
       <c r="DE3" t="n">
-        <v>548.2847900390625</v>
+        <v>483.757568359375</v>
       </c>
       <c r="DF3" t="n">
-        <v>547.1332397460938</v>
+        <v>483.9823608398438</v>
       </c>
       <c r="DG3" t="n">
-        <v>546.5061645507812</v>
+        <v>484.3157958984375</v>
       </c>
       <c r="DH3" t="n">
-        <v>545.309326171875</v>
+        <v>484.7948913574219</v>
       </c>
       <c r="DI3" t="n">
-        <v>542.334228515625</v>
+        <v>485.3151550292969</v>
       </c>
       <c r="DJ3" t="n">
-        <v>537.7327270507812</v>
+        <v>486.0664672851562</v>
       </c>
       <c r="DK3" t="n">
-        <v>537.3314208984375</v>
+        <v>486.3018493652344</v>
       </c>
       <c r="DL3" t="n">
-        <v>536.3098754882812</v>
+        <v>486.1978759765625</v>
       </c>
       <c r="DM3" t="n">
-        <v>535.2161865234375</v>
+        <v>486.2366943359375</v>
       </c>
       <c r="DN3" t="n">
-        <v>534.30859375</v>
+        <v>486.4862670898438</v>
       </c>
       <c r="DO3" t="n">
-        <v>536.0740966796875</v>
+        <v>485.7999877929688</v>
       </c>
       <c r="DP3" t="n">
-        <v>536.732421875</v>
+        <v>485.6137390136719</v>
       </c>
       <c r="DQ3" t="n">
-        <v>534.7330322265625</v>
+        <v>485.9274597167969</v>
       </c>
       <c r="DR3" t="n">
-        <v>533.6778564453125</v>
+        <v>486.1105651855469</v>
       </c>
       <c r="DS3" t="n">
-        <v>533.0180053710938</v>
+        <v>486.255126953125</v>
       </c>
       <c r="DT3" t="n">
-        <v>531.8821411132812</v>
+        <v>486.4105834960938</v>
       </c>
       <c r="DU3" t="n">
-        <v>531.1333618164062</v>
+        <v>486.3196105957031</v>
       </c>
       <c r="DV3" t="n">
-        <v>530.5366821289062</v>
+        <v>486.1748352050781</v>
       </c>
       <c r="DW3" t="n">
-        <v>530.800537109375</v>
+        <v>486.1518859863281</v>
       </c>
       <c r="DX3" t="n">
-        <v>530.129638671875</v>
+        <v>486.4532775878906</v>
       </c>
       <c r="DY3" t="n">
-        <v>529.9967041015625</v>
+        <v>486.880126953125</v>
       </c>
       <c r="DZ3" t="n">
-        <v>532.7357788085938</v>
+        <v>486.8030395507812</v>
       </c>
       <c r="EA3" t="n">
-        <v>536.1351928710938</v>
+        <v>486.6744689941406</v>
       </c>
       <c r="EB3" t="n">
-        <v>535.1181640625</v>
+        <v>486.9449157714844</v>
       </c>
       <c r="EC3" t="n">
-        <v>535.5906982421875</v>
+        <v>487.1166687011719</v>
       </c>
       <c r="ED3" t="n">
-        <v>535.359619140625</v>
+        <v>475.8569030761719</v>
       </c>
       <c r="EE3" t="n">
-        <v>535.8671264648438</v>
+        <v>468.7720642089844</v>
       </c>
       <c r="EF3" t="n">
-        <v>536.7327270507812</v>
+        <v>463.6134643554688</v>
       </c>
       <c r="EG3" t="n">
-        <v>529.1293334960938</v>
+        <v>460.5647583007812</v>
       </c>
       <c r="EH3" t="n">
-        <v>526.6510009765625</v>
+        <v>460.7632446289062</v>
       </c>
       <c r="EI3" t="n">
-        <v>520.513427734375</v>
+        <v>459.3182067871094</v>
       </c>
       <c r="EJ3" t="n">
-        <v>518.2294311523438</v>
+        <v>463.65576171875</v>
       </c>
       <c r="EK3" t="n">
-        <v>511.5677795410156</v>
+        <v>472.120361328125</v>
       </c>
       <c r="EL3" t="n">
-        <v>508.6068420410156</v>
+        <v>476.3370971679688</v>
       </c>
       <c r="EM3" t="n">
-        <v>502.7661437988281</v>
+        <v>478.4333190917969</v>
       </c>
       <c r="EN3" t="n">
-        <v>499.0377197265625</v>
+        <v>480.3966064453125</v>
       </c>
       <c r="EO3" t="n">
-        <v>504.9093322753906</v>
+        <v>481.2406005859375</v>
       </c>
       <c r="EP3" t="n">
-        <v>503.8059387207031</v>
+        <v>480.7687683105469</v>
       </c>
       <c r="EQ3" t="n">
-        <v>501.2579040527344</v>
+        <v>482.7220458984375</v>
       </c>
       <c r="ER3" t="n">
-        <v>500.6311340332031</v>
+        <v>481.6824645996094</v>
       </c>
       <c r="ES3" t="n">
-        <v>502.7933044433594</v>
+        <v>480.6529541015625</v>
       </c>
       <c r="ET3" t="n">
-        <v>502.6990661621094</v>
+        <v>479.1203308105469</v>
       </c>
       <c r="EU3" t="n">
-        <v>497.9476623535156</v>
+        <v>473.891357421875</v>
       </c>
       <c r="EV3" t="n">
-        <v>494.6862182617188</v>
+        <v>467.4715270996094</v>
       </c>
       <c r="EW3" t="n">
-        <v>482.7039489746094</v>
+        <v>468.2052612304688</v>
       </c>
       <c r="EX3" t="n">
-        <v>474.2712707519531</v>
+        <v>470.2518615722656</v>
       </c>
       <c r="EY3" t="n">
-        <v>470.4159545898438</v>
+        <v>474.0090942382812</v>
       </c>
       <c r="EZ3" t="n">
-        <v>465.7437744140625</v>
+        <v>483.7036437988281</v>
       </c>
       <c r="FA3" t="n">
-        <v>461.6917419433594</v>
+        <v>488.7778930664062</v>
       </c>
       <c r="FB3" t="n">
-        <v>466.2527160644531</v>
+        <v>491.6213073730469</v>
       </c>
       <c r="FC3" t="n">
-        <v>469.765869140625</v>
+        <v>496.1431579589844</v>
       </c>
       <c r="FD3" t="n">
-        <v>473.4990539550781</v>
+        <v>503.0820007324219</v>
       </c>
       <c r="FE3" t="n">
-        <v>471.8980102539062</v>
+        <v>506.2908020019531</v>
       </c>
       <c r="FF3" t="n">
-        <v>469.5136413574219</v>
+        <v>508.3833618164062</v>
       </c>
       <c r="FG3" t="n">
-        <v>467.6734924316406</v>
+        <v>506.5403442382812</v>
       </c>
       <c r="FH3" t="n">
-        <v>467.6279602050781</v>
+        <v>503.2530212402344</v>
       </c>
       <c r="FI3" t="n">
-        <v>463.9525756835938</v>
+        <v>504.3213195800781</v>
       </c>
       <c r="FJ3" t="n">
-        <v>460.2984313964844</v>
+        <v>514.1422119140625</v>
       </c>
       <c r="FK3" t="n">
-        <v>455.5827026367188</v>
+        <v>518.7992553710938</v>
       </c>
       <c r="FL3" t="n">
-        <v>454.1370239257812</v>
+        <v>520.3715209960938</v>
       </c>
       <c r="FM3" t="n">
-        <v>450.1283264160156</v>
+        <v>521.4644165039062</v>
       </c>
       <c r="FN3" t="n">
-        <v>447.3542785644531</v>
+        <v>520.6881713867188</v>
       </c>
       <c r="FO3" t="n">
-        <v>446.0708618164062</v>
+        <v>523.8275146484375</v>
       </c>
       <c r="FP3" t="n">
-        <v>443.1821899414062</v>
+        <v>527.7046508789062</v>
       </c>
       <c r="FQ3" t="n">
-        <v>447.2304992675781</v>
+        <v>528.9098510742188</v>
       </c>
       <c r="FR3" t="n">
-        <v>449.1015014648438</v>
+        <v>531.895263671875</v>
       </c>
       <c r="FS3" t="n">
-        <v>450.3907775878906</v>
+        <v>530.1166381835938</v>
       </c>
       <c r="FT3" t="n">
-        <v>446.1585693359375</v>
+        <v>531.5645141601562</v>
       </c>
       <c r="FU3" t="n">
-        <v>446.2947998046875</v>
+        <v>533.4922485351562</v>
       </c>
       <c r="FV3" t="n">
-        <v>447.1659240722656</v>
+        <v>538.9431762695312</v>
       </c>
       <c r="FW3" t="n">
-        <v>445.7102661132812</v>
+        <v>541.5394897460938</v>
       </c>
       <c r="FX3" t="n">
-        <v>445.8732604980469</v>
+        <v>543.8912353515625</v>
       </c>
       <c r="FY3" t="n">
-        <v>446.2862548828125</v>
+        <v>545.88232421875</v>
       </c>
       <c r="FZ3" t="n">
-        <v>446.2514038085938</v>
+        <v>548.1234741210938</v>
       </c>
       <c r="GA3" t="n">
-        <v>445.4609680175781</v>
+        <v>554.591796875</v>
       </c>
       <c r="GB3" t="n">
-        <v>443.0819396972656</v>
+        <v>558.634765625</v>
       </c>
       <c r="GC3" t="n">
-        <v>440.3572998046875</v>
+        <v>569.6758422851562</v>
       </c>
       <c r="GD3" t="n">
-        <v>440.256103515625</v>
+        <v>573.8633422851562</v>
       </c>
       <c r="GE3" t="n">
-        <v>438.2023315429688</v>
+        <v>577.1069946289062</v>
       </c>
       <c r="GF3" t="n">
-        <v>437.2001953125</v>
+        <v>586.003662109375</v>
       </c>
       <c r="GG3" t="n">
-        <v>437.4182434082031</v>
+        <v>587.8515625</v>
       </c>
       <c r="GH3" t="n">
-        <v>436.9272766113281</v>
+        <v>596.2324829101562</v>
       </c>
       <c r="GI3" t="n">
-        <v>436.9064331054688</v>
+        <v>606.35302734375</v>
       </c>
       <c r="GJ3" t="n">
-        <v>437.8573913574219</v>
+        <v>612.7965698242188</v>
       </c>
       <c r="GK3" t="n">
-        <v>438.7401123046875</v>
+        <v>572.332275390625</v>
       </c>
       <c r="GL3" t="n">
-        <v>439.0436401367188</v>
+        <v>585.6748046875</v>
       </c>
       <c r="GM3" t="n">
-        <v>439.1699829101562</v>
+        <v>600.1270141601562</v>
       </c>
       <c r="GN3" t="n">
-        <v>438.3181762695312</v>
+        <v>607.8561401367188</v>
       </c>
       <c r="GO3" t="n">
-        <v>438.9736938476562</v>
+        <v>622.4420776367188</v>
       </c>
       <c r="GP3" t="n">
-        <v>436.8178100585938</v>
+        <v>622.43896484375</v>
       </c>
       <c r="GQ3" t="n">
-        <v>434.5903015136719</v>
+        <v>614.6783447265625</v>
       </c>
       <c r="GR3" t="n">
-        <v>430.4543762207031</v>
+        <v>615.6654052734375</v>
       </c>
       <c r="GS3" t="n">
-        <v>429.4314880371094</v>
+        <v>615.4747314453125</v>
       </c>
       <c r="GT3" t="n">
-        <v>428.621337890625</v>
+        <v>615.431396484375</v>
       </c>
       <c r="GU3" t="n">
-        <v>422.9811096191406</v>
+        <v>611.5513916015625</v>
       </c>
       <c r="GV3" t="n">
-        <v>420.9966735839844</v>
+        <v>610.2945556640625</v>
       </c>
       <c r="GW3" t="n">
-        <v>422.5702819824219</v>
+        <v>608.087890625</v>
       </c>
       <c r="GX3" t="n">
-        <v>421.3257446289062</v>
+        <v>604.1734619140625</v>
       </c>
       <c r="GY3" t="n">
-        <v>420.1101989746094</v>
+        <v>598.7843017578125</v>
       </c>
       <c r="GZ3" t="n">
-        <v>421.8114318847656</v>
+        <v>601.4344482421875</v>
       </c>
       <c r="HA3" t="n">
-        <v>421.7786254882812</v>
+        <v>616.3630981445312</v>
       </c>
       <c r="HB3" t="n">
-        <v>420.8327941894531</v>
+        <v>617.9864501953125</v>
       </c>
       <c r="HC3" t="n">
-        <v>414.9482727050781</v>
+        <v>623.35595703125</v>
       </c>
       <c r="HD3" t="n">
-        <v>415.3460083007812</v>
+        <v>623.3359375</v>
       </c>
       <c r="HE3" t="n">
-        <v>417.7880249023438</v>
+        <v>626.7944946289062</v>
       </c>
       <c r="HF3" t="n">
-        <v>418.1403503417969</v>
+        <v>621.76416015625</v>
       </c>
       <c r="HG3" t="n">
-        <v>418.3580627441406</v>
+        <v>614.5985717773438</v>
       </c>
       <c r="HH3" t="n">
-        <v>420.7622680664062</v>
+        <v>629.1624755859375</v>
       </c>
       <c r="HI3" t="n">
-        <v>419.5896606445312</v>
+        <v>656.422607421875</v>
       </c>
       <c r="HJ3" t="n">
-        <v>422.7489624023438</v>
+        <v>676.2247314453125</v>
       </c>
       <c r="HK3" t="n">
-        <v>421.1071472167969</v>
+        <v>688.48681640625</v>
       </c>
       <c r="HL3" t="n">
-        <v>430.3808898925781</v>
+        <v>695.6983642578125</v>
       </c>
       <c r="HM3" t="n">
-        <v>439.2620849609375</v>
+        <v>698.324951171875</v>
       </c>
       <c r="HN3" t="n">
-        <v>442.2055358886719</v>
+        <v>698.5104370117188</v>
       </c>
       <c r="HO3" t="n">
-        <v>447.6720886230469</v>
+        <v>712.4558715820312</v>
       </c>
       <c r="HP3" t="n">
-        <v>447.7529602050781</v>
+        <v>729.6803588867188</v>
       </c>
       <c r="HQ3" t="n">
-        <v>445.6776428222656</v>
+        <v>728.711669921875</v>
       </c>
       <c r="HR3" t="n">
-        <v>444.4751892089844</v>
+        <v>752.3323974609375</v>
       </c>
       <c r="HS3" t="n">
-        <v>444.8964538574219</v>
+        <v>764.5615844726562</v>
       </c>
       <c r="HT3" t="n">
-        <v>447.828369140625</v>
+        <v>770.3942260742188</v>
       </c>
       <c r="HU3" t="n">
-        <v>446.2130432128906</v>
+        <v>761.6948852539062</v>
       </c>
       <c r="HV3" t="n">
-        <v>447.1491088867188</v>
+        <v>830.8497924804688</v>
       </c>
       <c r="HW3" t="n">
-        <v>448.0323791503906</v>
+        <v>810.0573120117188</v>
       </c>
       <c r="HX3" t="n">
-        <v>449.001953125</v>
+        <v>836.0697631835938</v>
       </c>
       <c r="HY3" t="n">
-        <v>449.0027770996094</v>
+        <v>771.5331420898438</v>
       </c>
       <c r="HZ3" t="n">
-        <v>449.3926086425781</v>
+        <v>796.7258911132812</v>
       </c>
       <c r="IA3" t="n">
-        <v>451.1031188964844</v>
+        <v>757.974365234375</v>
       </c>
       <c r="IB3" t="n">
-        <v>451.9426574707031</v>
+        <v>756.5089721679688</v>
       </c>
       <c r="IC3" t="n">
-        <v>451.7493286132812</v>
+        <v>753.2098999023438</v>
       </c>
       <c r="ID3" t="n">
-        <v>449.9414672851562</v>
+        <v>788.4498901367188</v>
       </c>
       <c r="IE3" t="n">
-        <v>448.0192260742188</v>
+        <v>799.96142578125</v>
       </c>
       <c r="IF3" t="n">
-        <v>449.1286315917969</v>
+        <v>771.9322509765625</v>
       </c>
       <c r="IG3" t="n">
-        <v>449.5621337890625</v>
+        <v>740.6744995117188</v>
       </c>
       <c r="IH3" t="n">
-        <v>448.3766784667969</v>
+        <v>746.1253662109375</v>
       </c>
       <c r="II3" t="n">
-        <v>449.8029174804688</v>
+        <v>716.022216796875</v>
       </c>
       <c r="IJ3" t="n">
-        <v>449.5140991210938</v>
+        <v>769.0589599609375</v>
       </c>
       <c r="IK3" t="n">
-        <v>446.6268920898438</v>
+        <v>771.4482421875</v>
       </c>
       <c r="IL3" t="n">
-        <v>446.6896057128906</v>
+        <v>838.48095703125</v>
       </c>
       <c r="IM3" t="n">
-        <v>446.3280029296875</v>
+        <v>885.8832397460938</v>
       </c>
       <c r="IN3" t="n">
-        <v>445.7113037109375</v>
+        <v>827.7771606445312</v>
       </c>
       <c r="IO3" t="n">
-        <v>445.3270568847656</v>
+        <v>828.4515991210938</v>
       </c>
       <c r="IP3" t="n">
-        <v>442.9383850097656</v>
+        <v>829.4185791015625</v>
       </c>
       <c r="IQ3" t="n">
-        <v>435.3312377929688</v>
+        <v>951.1974487304688</v>
       </c>
       <c r="IR3" t="n">
-        <v>437.6456604003906</v>
+        <v>1019.887817382812</v>
       </c>
       <c r="IS3" t="n">
-        <v>433.8207397460938</v>
+        <v>1023.784912109375</v>
       </c>
       <c r="IT3" t="n">
-        <v>434.0612487792969</v>
+        <v>1029.548950195312</v>
       </c>
       <c r="IU3" t="n">
-        <v>432.7506103515625</v>
+        <v>1006.679565429688</v>
       </c>
       <c r="IV3" t="n">
-        <v>432.187744140625</v>
+        <v>1004.368530273438</v>
       </c>
       <c r="IW3" t="n">
-        <v>432.1268005371094</v>
+        <v>995.266357421875</v>
       </c>
       <c r="IX3" t="n">
-        <v>430.939453125</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>431.32470703125</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>431.5080871582031</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>433.3544616699219</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>433.0087585449219</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>435.0785827636719</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>431.9082946777344</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>437.4528503417969</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>440.0280151367188</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>442.992919921875</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>445.6479187011719</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>446.3255004882812</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>447.1050109863281</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>447.4279174804688</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>446.7761535644531</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>447.5809020996094</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>447.9084777832031</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>448.8974914550781</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>449.1098022460938</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>449.5097961425781</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>449.3719787597656</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>448.6338195800781</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>447.0313720703125</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>447.4516906738281</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>447.68505859375</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>447.5625</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>447.539794921875</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>448.2310485839844</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>448.7999877929688</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>450.6503295898438</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>452.6338195800781</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>452.6282653808594</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>449.6651916503906</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>447.9721069335938</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>447.154541015625</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>452.3588562011719</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>452.1814880371094</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>451.7046203613281</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>453.2523498535156</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>452.4484558105469</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>451.1974182128906</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>451.0861511230469</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>450.7936401367188</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>450.2994079589844</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>450.593994140625</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>451.8526306152344</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>450.3334045410156</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>448.1346740722656</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>447.4535217285156</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>446.542236328125</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>446.961181640625</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>446.7861938476562</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>446.7091369628906</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>447.5462646484375</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>450.2088317871094</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>451.5912475585938</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>453.4449768066406</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>455.7586364746094</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>453.3487243652344</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>452.5586547851562</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>450.1879577636719</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>457.3734741210938</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>462.7283935546875</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>472.1055297851562</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>476.6086730957031</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>480.5591125488281</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>491.758056640625</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>494.3422546386719</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>517.5448608398438</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>518.2346801757812</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>518.828369140625</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>470.8377380371094</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>489.5321350097656</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>512.10986328125</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>493.451171875</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>562.4575805664062</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>584.8245239257812</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>662.2018432617188</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>602.4329223632812</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>618.2140502929688</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>644.5667114257812</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>684.4060668945312</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>692.8755493164062</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>689.9806518554688</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>633.22021484375</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>595.1907958984375</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>582.8959350585938</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>594.1190795898438</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>606.1482543945312</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>611.7185668945312</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>636.4075317382812</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>667.6484375</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>693.1517944335938</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>706.77734375</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>691.9222412109375</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>685.97998046875</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>689.9483642578125</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>692.2275390625</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>707.94580078125</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>787.8721313476562</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>852.7920532226562</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>849.6171264648438</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>856.302001953125</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>865.5684814453125</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>884.8383178710938</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>883.69677734375</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>882.3104248046875</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>888.1238403320312</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>852.0424194335938</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>878.3023681640625</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>892.7035522460938</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>943.2474365234375</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>965.0283203125</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>982.6453247070312</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>962.184814453125</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>971.9120483398438</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>959.1712036132812</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>888.2273559570312</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>936.4971313476562</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>920.2067260742188</v>
+        <v>993.4064331054688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1036.720458984375</v>
+        <v>1003.327026367188</v>
       </c>
       <c r="B4" t="n">
-        <v>1031.981201171875</v>
+        <v>1008.169311523438</v>
       </c>
       <c r="C4" t="n">
-        <v>1032.684692382812</v>
+        <v>1016.301391601562</v>
       </c>
       <c r="D4" t="n">
-        <v>1033.931762695312</v>
+        <v>1028.204833984375</v>
       </c>
       <c r="E4" t="n">
-        <v>1035.186889648438</v>
+        <v>1045.207763671875</v>
       </c>
       <c r="F4" t="n">
-        <v>1036.445434570312</v>
+        <v>1060.450073242188</v>
       </c>
       <c r="G4" t="n">
-        <v>1038.571655273438</v>
+        <v>1075.397094726562</v>
       </c>
       <c r="H4" t="n">
-        <v>1041.964111328125</v>
+        <v>1089.719604492188</v>
       </c>
       <c r="I4" t="n">
-        <v>1050.42822265625</v>
+        <v>1106.316650390625</v>
       </c>
       <c r="J4" t="n">
-        <v>1066.005981445312</v>
+        <v>1126.062622070312</v>
       </c>
       <c r="K4" t="n">
-        <v>1087.499145507812</v>
+        <v>1139.706420898438</v>
       </c>
       <c r="L4" t="n">
-        <v>1102.264404296875</v>
+        <v>1162.86669921875</v>
       </c>
       <c r="M4" t="n">
-        <v>942.38525390625</v>
+        <v>1186.614379882812</v>
       </c>
       <c r="N4" t="n">
-        <v>964.2960815429688</v>
+        <v>1217.445068359375</v>
       </c>
       <c r="O4" t="n">
-        <v>1009.984680175781</v>
+        <v>1242.54736328125</v>
       </c>
       <c r="P4" t="n">
-        <v>1015.095397949219</v>
+        <v>1256.133666992188</v>
       </c>
       <c r="Q4" t="n">
-        <v>1001.142150878906</v>
+        <v>1267.741821289062</v>
       </c>
       <c r="R4" t="n">
-        <v>1006.73876953125</v>
+        <v>1286.487182617188</v>
       </c>
       <c r="S4" t="n">
-        <v>1006.475402832031</v>
+        <v>1300.670776367188</v>
       </c>
       <c r="T4" t="n">
-        <v>1009.996459960938</v>
+        <v>1310.922729492188</v>
       </c>
       <c r="U4" t="n">
-        <v>1019.962768554688</v>
+        <v>1314.883178710938</v>
       </c>
       <c r="V4" t="n">
-        <v>1029.09375</v>
+        <v>1322.936279296875</v>
       </c>
       <c r="W4" t="n">
-        <v>1025.507690429688</v>
+        <v>1353.974975585938</v>
       </c>
       <c r="X4" t="n">
-        <v>1048.927856445312</v>
+        <v>1366.468994140625</v>
       </c>
       <c r="Y4" t="n">
-        <v>1024.68896484375</v>
+        <v>1364.338134765625</v>
       </c>
       <c r="Z4" t="n">
-        <v>999.1583251953125</v>
+        <v>1391.973510742188</v>
       </c>
       <c r="AA4" t="n">
-        <v>993.1671142578125</v>
+        <v>1409.600952148438</v>
       </c>
       <c r="AB4" t="n">
-        <v>1072.683349609375</v>
+        <v>1424.372314453125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1088.54150390625</v>
+        <v>1442.938720703125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1291.733520507812</v>
+        <v>1466.382080078125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1296.904296875</v>
+        <v>1507.34326171875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1307.98828125</v>
+        <v>1518.638916015625</v>
       </c>
       <c r="AG4" t="n">
-        <v>1315.254272460938</v>
+        <v>1524.91748046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1346.175659179688</v>
+        <v>1536.871337890625</v>
       </c>
       <c r="AI4" t="n">
-        <v>1076.960571289062</v>
+        <v>1553.559692382812</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1086.488037109375</v>
+        <v>1563.080322265625</v>
       </c>
       <c r="AK4" t="n">
-        <v>1073.25439453125</v>
+        <v>1565.930053710938</v>
       </c>
       <c r="AL4" t="n">
-        <v>1067.081665039062</v>
+        <v>1570.807739257812</v>
       </c>
       <c r="AM4" t="n">
-        <v>1051.352294921875</v>
+        <v>1572.248779296875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1046.48291015625</v>
+        <v>1572.278686523438</v>
       </c>
       <c r="AO4" t="n">
-        <v>1039.605834960938</v>
+        <v>1576.945678710938</v>
       </c>
       <c r="AP4" t="n">
-        <v>1036.061279296875</v>
+        <v>1584.839965820312</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1034.854248046875</v>
+        <v>1592.681884765625</v>
       </c>
       <c r="AR4" t="n">
-        <v>1041.348388671875</v>
+        <v>1597.38623046875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1044.106689453125</v>
+        <v>1616.84765625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1048.259643554688</v>
+        <v>1637.127563476562</v>
       </c>
       <c r="AU4" t="n">
-        <v>1049.232788085938</v>
+        <v>1650.222778320312</v>
       </c>
       <c r="AV4" t="n">
-        <v>1054.788452148438</v>
+        <v>1653.152709960938</v>
       </c>
       <c r="AW4" t="n">
-        <v>1056.032836914062</v>
+        <v>1658.238037109375</v>
       </c>
       <c r="AX4" t="n">
-        <v>1055.055297851562</v>
+        <v>1667.91796875</v>
       </c>
       <c r="AY4" t="n">
-        <v>1052.08984375</v>
+        <v>1675.975952148438</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1048.876220703125</v>
+        <v>1689.444091796875</v>
       </c>
       <c r="BA4" t="n">
-        <v>1043.439819335938</v>
+        <v>1694.562133789062</v>
       </c>
       <c r="BB4" t="n">
-        <v>1032.009765625</v>
+        <v>1699.01708984375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1022.48828125</v>
+        <v>1694.027465820312</v>
       </c>
       <c r="BD4" t="n">
-        <v>1021.195495605469</v>
+        <v>1700.900390625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1019.641845703125</v>
+        <v>1704.99658203125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1020.287841796875</v>
+        <v>1700.54931640625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1022.083740234375</v>
+        <v>1700.823364257812</v>
       </c>
       <c r="BH4" t="n">
-        <v>1027.275512695312</v>
+        <v>1700.121459960938</v>
       </c>
       <c r="BI4" t="n">
-        <v>1032.22216796875</v>
+        <v>1698.130249023438</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1035.9296875</v>
+        <v>1686.114013671875</v>
       </c>
       <c r="BK4" t="n">
-        <v>1044.260620117188</v>
+        <v>1680.114135742188</v>
       </c>
       <c r="BL4" t="n">
-        <v>1049.376220703125</v>
+        <v>1687.68994140625</v>
       </c>
       <c r="BM4" t="n">
-        <v>1050.306518554688</v>
+        <v>1703.106567382812</v>
       </c>
       <c r="BN4" t="n">
-        <v>1047.895874023438</v>
+        <v>1708.189086914062</v>
       </c>
       <c r="BO4" t="n">
-        <v>1012.275146484375</v>
+        <v>1701.849609375</v>
       </c>
       <c r="BP4" t="n">
-        <v>992.7572021484375</v>
+        <v>1708.757080078125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>983.443115234375</v>
+        <v>1721.052001953125</v>
       </c>
       <c r="BR4" t="n">
-        <v>977.926025390625</v>
+        <v>1717.466186523438</v>
       </c>
       <c r="BS4" t="n">
-        <v>974.667724609375</v>
+        <v>1720.64306640625</v>
       </c>
       <c r="BT4" t="n">
-        <v>973.628662109375</v>
+        <v>1719.262451171875</v>
       </c>
       <c r="BU4" t="n">
-        <v>970.3587646484375</v>
+        <v>1716.638305664062</v>
       </c>
       <c r="BV4" t="n">
-        <v>965.1100463867188</v>
+        <v>1712.781005859375</v>
       </c>
       <c r="BW4" t="n">
-        <v>957.6611328125</v>
+        <v>1708.41943359375</v>
       </c>
       <c r="BX4" t="n">
-        <v>959.768310546875</v>
+        <v>1706.9501953125</v>
       </c>
       <c r="BY4" t="n">
-        <v>959.5638427734375</v>
+        <v>1704.612548828125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>962.7127685546875</v>
+        <v>1704.317749023438</v>
       </c>
       <c r="CA4" t="n">
-        <v>970.91552734375</v>
+        <v>1703.646484375</v>
       </c>
       <c r="CB4" t="n">
-        <v>975.22216796875</v>
+        <v>1702.683349609375</v>
       </c>
       <c r="CC4" t="n">
-        <v>976.9403076171875</v>
+        <v>1701.3583984375</v>
       </c>
       <c r="CD4" t="n">
-        <v>977.6144409179688</v>
+        <v>1699.86669921875</v>
       </c>
       <c r="CE4" t="n">
-        <v>975.2245483398438</v>
+        <v>1697.86083984375</v>
       </c>
       <c r="CF4" t="n">
-        <v>974.2639770507812</v>
+        <v>1697.265869140625</v>
       </c>
       <c r="CG4" t="n">
-        <v>973.20556640625</v>
+        <v>1693.862426757812</v>
       </c>
       <c r="CH4" t="n">
-        <v>968.9613037109375</v>
+        <v>1690.178344726562</v>
       </c>
       <c r="CI4" t="n">
-        <v>961.879638671875</v>
+        <v>1688.086669921875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>945.6875</v>
+        <v>1693.256591796875</v>
       </c>
       <c r="CK4" t="n">
-        <v>937.1615600585938</v>
+        <v>1695.6474609375</v>
       </c>
       <c r="CL4" t="n">
-        <v>926.3871459960938</v>
+        <v>1693.192138671875</v>
       </c>
       <c r="CM4" t="n">
-        <v>925.5838623046875</v>
+        <v>1689.097534179688</v>
       </c>
       <c r="CN4" t="n">
-        <v>922.6333618164062</v>
+        <v>1692.884765625</v>
       </c>
       <c r="CO4" t="n">
-        <v>924.542236328125</v>
+        <v>1694.678100585938</v>
       </c>
       <c r="CP4" t="n">
-        <v>926.4317626953125</v>
+        <v>1693.846435546875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>924.2984619140625</v>
+        <v>1693.185180664062</v>
       </c>
       <c r="CR4" t="n">
-        <v>925.9627075195312</v>
+        <v>1693.37451171875</v>
       </c>
       <c r="CS4" t="n">
-        <v>930.9730834960938</v>
+        <v>1693.505004882812</v>
       </c>
       <c r="CT4" t="n">
-        <v>930.0345458984375</v>
+        <v>1693.611328125</v>
       </c>
       <c r="CU4" t="n">
-        <v>929.4693603515625</v>
+        <v>1693.914428710938</v>
       </c>
       <c r="CV4" t="n">
-        <v>928.5933837890625</v>
+        <v>1694.396240234375</v>
       </c>
       <c r="CW4" t="n">
-        <v>927.6050415039062</v>
+        <v>1695.070556640625</v>
       </c>
       <c r="CX4" t="n">
-        <v>925.1068115234375</v>
+        <v>1695.973999023438</v>
       </c>
       <c r="CY4" t="n">
-        <v>925.7855224609375</v>
+        <v>1698.61865234375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>927.2791748046875</v>
+        <v>1700.349975585938</v>
       </c>
       <c r="DA4" t="n">
-        <v>928.158935546875</v>
+        <v>1700.609008789062</v>
       </c>
       <c r="DB4" t="n">
-        <v>928.857666015625</v>
+        <v>1700.676513671875</v>
       </c>
       <c r="DC4" t="n">
-        <v>928.663818359375</v>
+        <v>1701.35791015625</v>
       </c>
       <c r="DD4" t="n">
-        <v>929.3016357421875</v>
+        <v>1701.60986328125</v>
       </c>
       <c r="DE4" t="n">
-        <v>930.2129516601562</v>
+        <v>1699.87158203125</v>
       </c>
       <c r="DF4" t="n">
-        <v>929.7302856445312</v>
+        <v>1699.756225585938</v>
       </c>
       <c r="DG4" t="n">
-        <v>928.1676025390625</v>
+        <v>1698.962280273438</v>
       </c>
       <c r="DH4" t="n">
-        <v>925.5400390625</v>
+        <v>1697.95556640625</v>
       </c>
       <c r="DI4" t="n">
-        <v>925.8793334960938</v>
+        <v>1696.79248046875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>925.5771484375</v>
+        <v>1694.931030273438</v>
       </c>
       <c r="DK4" t="n">
-        <v>923.923583984375</v>
+        <v>1694.65966796875</v>
       </c>
       <c r="DL4" t="n">
-        <v>925.872802734375</v>
+        <v>1694.885986328125</v>
       </c>
       <c r="DM4" t="n">
-        <v>928.7545166015625</v>
+        <v>1694.773681640625</v>
       </c>
       <c r="DN4" t="n">
-        <v>934.90478515625</v>
+        <v>1694.068359375</v>
       </c>
       <c r="DO4" t="n">
-        <v>947.8292236328125</v>
+        <v>1694.0751953125</v>
       </c>
       <c r="DP4" t="n">
-        <v>968.5574951171875</v>
+        <v>1693.69140625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>995.462646484375</v>
+        <v>1692.315673828125</v>
       </c>
       <c r="DR4" t="n">
-        <v>998.3743286132812</v>
+        <v>1690.760131835938</v>
       </c>
       <c r="DS4" t="n">
-        <v>1000.557678222656</v>
+        <v>1689.544799804688</v>
       </c>
       <c r="DT4" t="n">
-        <v>1005.129150390625</v>
+        <v>1692.081909179688</v>
       </c>
       <c r="DU4" t="n">
-        <v>1007.454467773438</v>
+        <v>1695.192138671875</v>
       </c>
       <c r="DV4" t="n">
-        <v>1008.876525878906</v>
+        <v>1704.047607421875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1010.053833007812</v>
+        <v>1712.615478515625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1011.397094726562</v>
+        <v>1713.5859375</v>
       </c>
       <c r="DY4" t="n">
-        <v>1013.588500976562</v>
+        <v>1700.55029296875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1014.703735351562</v>
+        <v>1679.785034179688</v>
       </c>
       <c r="EA4" t="n">
-        <v>1013.160522460938</v>
+        <v>1671.309448242188</v>
       </c>
       <c r="EB4" t="n">
-        <v>1018.325805664062</v>
+        <v>1672.812744140625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1016.943054199219</v>
+        <v>1671.3046875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1016.577026367188</v>
+        <v>1596.286865234375</v>
       </c>
       <c r="EE4" t="n">
-        <v>1016.218017578125</v>
+        <v>1576.557006835938</v>
       </c>
       <c r="EF4" t="n">
-        <v>1026.227661132812</v>
+        <v>1574.356323242188</v>
       </c>
       <c r="EG4" t="n">
-        <v>1074.190673828125</v>
+        <v>1572.05029296875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1084.458740234375</v>
+        <v>1580.003051757812</v>
       </c>
       <c r="EI4" t="n">
-        <v>1109.89599609375</v>
+        <v>1573.286254882812</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1119.711059570312</v>
+        <v>1583.949951171875</v>
       </c>
       <c r="EK4" t="n">
-        <v>1155.797607421875</v>
+        <v>1614.989990234375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1172.251953125</v>
+        <v>1633.400634765625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1189.665161132812</v>
+        <v>1643.616577148438</v>
       </c>
       <c r="EN4" t="n">
-        <v>1202.121704101562</v>
+        <v>1658.7236328125</v>
       </c>
       <c r="EO4" t="n">
-        <v>1210.894775390625</v>
+        <v>1644.0703125</v>
       </c>
       <c r="EP4" t="n">
-        <v>1212.473266601562</v>
+        <v>1633.480834960938</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1240.535888671875</v>
+        <v>1644.144775390625</v>
       </c>
       <c r="ER4" t="n">
-        <v>1252.089965820312</v>
+        <v>1640.185424804688</v>
       </c>
       <c r="ES4" t="n">
-        <v>1258.22607421875</v>
+        <v>1636.840087890625</v>
       </c>
       <c r="ET4" t="n">
-        <v>1262.205810546875</v>
+        <v>1629.0107421875</v>
       </c>
       <c r="EU4" t="n">
-        <v>1281.24169921875</v>
+        <v>1599.265014648438</v>
       </c>
       <c r="EV4" t="n">
-        <v>1322.792358398438</v>
+        <v>1566.648681640625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1385.331787109375</v>
+        <v>1552.392456054688</v>
       </c>
       <c r="EX4" t="n">
-        <v>1410.732543945312</v>
+        <v>1528.516845703125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1445.040161132812</v>
+        <v>1522.052490234375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1473.617919921875</v>
+        <v>1514.809448242188</v>
       </c>
       <c r="FA4" t="n">
-        <v>1512.8681640625</v>
+        <v>1515.193969726562</v>
       </c>
       <c r="FB4" t="n">
-        <v>1517.307250976562</v>
+        <v>1518.938232421875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1531.598388671875</v>
+        <v>1516.022705078125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1615.209106445312</v>
+        <v>1506.714477539062</v>
       </c>
       <c r="FE4" t="n">
-        <v>1656.436279296875</v>
+        <v>1503.031127929688</v>
       </c>
       <c r="FF4" t="n">
-        <v>1678.270263671875</v>
+        <v>1459.60498046875</v>
       </c>
       <c r="FG4" t="n">
-        <v>1764.890625</v>
+        <v>1427.830322265625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1802.895263671875</v>
+        <v>1387.306274414062</v>
       </c>
       <c r="FI4" t="n">
-        <v>1801.904541015625</v>
+        <v>1369.42578125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1825.961059570312</v>
+        <v>1349.265258789062</v>
       </c>
       <c r="FK4" t="n">
-        <v>1873.908447265625</v>
+        <v>1378.391845703125</v>
       </c>
       <c r="FL4" t="n">
-        <v>1893.935424804688</v>
+        <v>1372.411499023438</v>
       </c>
       <c r="FM4" t="n">
-        <v>1980.645263671875</v>
+        <v>1370.907836914062</v>
       </c>
       <c r="FN4" t="n">
-        <v>2022.049072265625</v>
+        <v>1357.373413085938</v>
       </c>
       <c r="FO4" t="n">
-        <v>2058.2509765625</v>
+        <v>1335.370849609375</v>
       </c>
       <c r="FP4" t="n">
-        <v>2109.34033203125</v>
+        <v>1332.472778320312</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2110.029541015625</v>
+        <v>1329.049682617188</v>
       </c>
       <c r="FR4" t="n">
-        <v>2094.61669921875</v>
+        <v>1307.674926757812</v>
       </c>
       <c r="FS4" t="n">
-        <v>2074.20703125</v>
+        <v>1295.173095703125</v>
       </c>
       <c r="FT4" t="n">
-        <v>2081.500732421875</v>
+        <v>1278.121948242188</v>
       </c>
       <c r="FU4" t="n">
-        <v>2105.12890625</v>
+        <v>1254.667602539062</v>
       </c>
       <c r="FV4" t="n">
-        <v>2098.03369140625</v>
+        <v>1215.080810546875</v>
       </c>
       <c r="FW4" t="n">
-        <v>2094.761962890625</v>
+        <v>1162.2470703125</v>
       </c>
       <c r="FX4" t="n">
-        <v>2091.69970703125</v>
+        <v>1147.953247070312</v>
       </c>
       <c r="FY4" t="n">
-        <v>2095.628662109375</v>
+        <v>1111.705932617188</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2081.25</v>
+        <v>1086.822265625</v>
       </c>
       <c r="GA4" t="n">
-        <v>2086.25341796875</v>
+        <v>1052.227172851562</v>
       </c>
       <c r="GB4" t="n">
-        <v>2091.498046875</v>
+        <v>1033.423828125</v>
       </c>
       <c r="GC4" t="n">
-        <v>2092.68603515625</v>
+        <v>985.26953125</v>
       </c>
       <c r="GD4" t="n">
-        <v>2107.66552734375</v>
+        <v>959.1422729492188</v>
       </c>
       <c r="GE4" t="n">
-        <v>2094.726318359375</v>
+        <v>926.0810546875</v>
       </c>
       <c r="GF4" t="n">
-        <v>2113.820556640625</v>
+        <v>902.866943359375</v>
       </c>
       <c r="GG4" t="n">
-        <v>2114.10791015625</v>
+        <v>894.89697265625</v>
       </c>
       <c r="GH4" t="n">
-        <v>2119.808349609375</v>
+        <v>875.103515625</v>
       </c>
       <c r="GI4" t="n">
-        <v>2124.218505859375</v>
+        <v>850.6738891601562</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2117.198486328125</v>
+        <v>834.145751953125</v>
       </c>
       <c r="GK4" t="n">
-        <v>2107.5966796875</v>
+        <v>1001.325988769531</v>
       </c>
       <c r="GL4" t="n">
-        <v>2106.437255859375</v>
+        <v>964.065185546875</v>
       </c>
       <c r="GM4" t="n">
-        <v>2087.377197265625</v>
+        <v>928.9866333007812</v>
       </c>
       <c r="GN4" t="n">
-        <v>2060.748779296875</v>
+        <v>910.0227661132812</v>
       </c>
       <c r="GO4" t="n">
-        <v>2052.796630859375</v>
+        <v>874.4091796875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2062.863037109375</v>
+        <v>858.146728515625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2042.29296875</v>
+        <v>851.7325439453125</v>
       </c>
       <c r="GR4" t="n">
-        <v>2029.717041015625</v>
+        <v>838.6661987304688</v>
       </c>
       <c r="GS4" t="n">
-        <v>2088.319091796875</v>
+        <v>836.2952880859375</v>
       </c>
       <c r="GT4" t="n">
-        <v>2099.0361328125</v>
+        <v>833.6593017578125</v>
       </c>
       <c r="GU4" t="n">
-        <v>2045.138793945312</v>
+        <v>833.9960327148438</v>
       </c>
       <c r="GV4" t="n">
-        <v>2004.235595703125</v>
+        <v>834.390625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2008.333374023438</v>
+        <v>836.1737060546875</v>
       </c>
       <c r="GX4" t="n">
-        <v>2029.164916992188</v>
+        <v>841.6820068359375</v>
       </c>
       <c r="GY4" t="n">
-        <v>2011.874267578125</v>
+        <v>856.8285522460938</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2028.639892578125</v>
+        <v>857.680419921875</v>
       </c>
       <c r="HA4" t="n">
-        <v>2031.438232421875</v>
+        <v>853.0235595703125</v>
       </c>
       <c r="HB4" t="n">
-        <v>2028.998046875</v>
+        <v>851.43994140625</v>
       </c>
       <c r="HC4" t="n">
-        <v>1974.688232421875</v>
+        <v>856.4384765625</v>
       </c>
       <c r="HD4" t="n">
-        <v>2003.746215820312</v>
+        <v>869.55908203125</v>
       </c>
       <c r="HE4" t="n">
-        <v>2024.137451171875</v>
+        <v>861.583251953125</v>
       </c>
       <c r="HF4" t="n">
-        <v>2024.117431640625</v>
+        <v>860.3027954101562</v>
       </c>
       <c r="HG4" t="n">
-        <v>2007.186401367188</v>
+        <v>857.3148803710938</v>
       </c>
       <c r="HH4" t="n">
-        <v>1986.094970703125</v>
+        <v>848.2470092773438</v>
       </c>
       <c r="HI4" t="n">
-        <v>1985.603759765625</v>
+        <v>813.9141235351562</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2009.66796875</v>
+        <v>766.0926513671875</v>
       </c>
       <c r="HK4" t="n">
-        <v>1965.417114257812</v>
+        <v>760.3492431640625</v>
       </c>
       <c r="HL4" t="n">
-        <v>1949.618896484375</v>
+        <v>749.456787109375</v>
       </c>
       <c r="HM4" t="n">
-        <v>1942.72119140625</v>
+        <v>747.5381469726562</v>
       </c>
       <c r="HN4" t="n">
-        <v>1912.56640625</v>
+        <v>746.215576171875</v>
       </c>
       <c r="HO4" t="n">
-        <v>1959.444458007812</v>
+        <v>721.1714477539062</v>
       </c>
       <c r="HP4" t="n">
-        <v>1948.900268554688</v>
+        <v>706.5792846679688</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1912.692260742188</v>
+        <v>705.4470825195312</v>
       </c>
       <c r="HR4" t="n">
-        <v>1906.3203125</v>
+        <v>690.8570556640625</v>
       </c>
       <c r="HS4" t="n">
-        <v>1945.6845703125</v>
+        <v>676.279052734375</v>
       </c>
       <c r="HT4" t="n">
-        <v>1935.725219726562</v>
+        <v>676.1068115234375</v>
       </c>
       <c r="HU4" t="n">
-        <v>1881.205322265625</v>
+        <v>687.9085693359375</v>
       </c>
       <c r="HV4" t="n">
-        <v>1890.123657226562</v>
+        <v>678.4757080078125</v>
       </c>
       <c r="HW4" t="n">
-        <v>1888.53564453125</v>
+        <v>674.0532836914062</v>
       </c>
       <c r="HX4" t="n">
-        <v>1908.986328125</v>
+        <v>671.1099853515625</v>
       </c>
       <c r="HY4" t="n">
-        <v>1905.385009765625</v>
+        <v>741.0887451171875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>1913.866821289062</v>
+        <v>755.0642700195312</v>
       </c>
       <c r="IA4" t="n">
-        <v>1944.94482421875</v>
+        <v>803.5816040039062</v>
       </c>
       <c r="IB4" t="n">
-        <v>1942.139526367188</v>
+        <v>805.5170288085938</v>
       </c>
       <c r="IC4" t="n">
-        <v>1944.0908203125</v>
+        <v>819.4884033203125</v>
       </c>
       <c r="ID4" t="n">
-        <v>1916.953125</v>
+        <v>820.5911254882812</v>
       </c>
       <c r="IE4" t="n">
-        <v>1884.034301757812</v>
+        <v>778.7769775390625</v>
       </c>
       <c r="IF4" t="n">
-        <v>1896.467529296875</v>
+        <v>813.0933837890625</v>
       </c>
       <c r="IG4" t="n">
-        <v>1907.106689453125</v>
+        <v>887.4827270507812</v>
       </c>
       <c r="IH4" t="n">
-        <v>1898.4072265625</v>
+        <v>866.8951416015625</v>
       </c>
       <c r="II4" t="n">
-        <v>1932.458740234375</v>
+        <v>883.2008056640625</v>
       </c>
       <c r="IJ4" t="n">
-        <v>1921.463989257812</v>
+        <v>812.8673095703125</v>
       </c>
       <c r="IK4" t="n">
-        <v>1941.91943359375</v>
+        <v>793.4011840820312</v>
       </c>
       <c r="IL4" t="n">
-        <v>1935.22119140625</v>
+        <v>733.9188842773438</v>
       </c>
       <c r="IM4" t="n">
-        <v>1909.165771484375</v>
+        <v>673.9119873046875</v>
       </c>
       <c r="IN4" t="n">
-        <v>1899.707275390625</v>
+        <v>740.58447265625</v>
       </c>
       <c r="IO4" t="n">
-        <v>1943.828247070312</v>
+        <v>727.3037109375</v>
       </c>
       <c r="IP4" t="n">
-        <v>1921.815551757812</v>
+        <v>723.349853515625</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1902.43701171875</v>
+        <v>579.425537109375</v>
       </c>
       <c r="IR4" t="n">
-        <v>1893.99658203125</v>
+        <v>531.4401245117188</v>
       </c>
       <c r="IS4" t="n">
-        <v>1889.500244140625</v>
+        <v>531.615966796875</v>
       </c>
       <c r="IT4" t="n">
-        <v>1913.03466796875</v>
+        <v>519.52880859375</v>
       </c>
       <c r="IU4" t="n">
-        <v>1905.05224609375</v>
+        <v>558.8958740234375</v>
       </c>
       <c r="IV4" t="n">
-        <v>1885.32177734375</v>
+        <v>520.2326049804688</v>
       </c>
       <c r="IW4" t="n">
-        <v>1882.792236328125</v>
+        <v>518.0313720703125</v>
       </c>
       <c r="IX4" t="n">
-        <v>1881.979370117188</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>1880.576416015625</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>1880.166748046875</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>1890.548217773438</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>1887.81494140625</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>1893.737548828125</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>1854.150146484375</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>1877.8544921875</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>1903.337646484375</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>1909.68798828125</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>1905.130249023438</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>1905.477294921875</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>1906.846923828125</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>1933.262451171875</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>1917.361083984375</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>1909.04052734375</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>1902.728271484375</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>1920.960327148438</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>1953.779907226562</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>1909.65966796875</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>1889.17919921875</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>1943.7158203125</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>1887.904174804688</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>1897.145141601562</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>1907.21044921875</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>1911.958129882812</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>1907.357543945312</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>1908.02294921875</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>1903.023193359375</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>1922.776611328125</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>1932.361206054688</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>1924.821411132812</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>1929.517822265625</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>1947.744140625</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>1981.772094726562</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>1971.583618164062</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>1937.652709960938</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>1968.104858398438</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>1970.132080078125</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>1974.236450195312</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>1976.274658203125</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>1976.307373046875</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>1965.373046875</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>1969.556274414062</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>1971.936889648438</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>1968.15283203125</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>1934.46875</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>1965.687866210938</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>1950.727172851562</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>1916.160034179688</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>1934.086303710938</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>1936.1171875</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>1929.79638671875</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>1921.105346679688</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>1916.063842773438</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>1959.299560546875</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>1954.265747070312</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>1918.678955078125</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>1794.63134765625</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>1752.447631835938</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>2034.2939453125</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>1982.150024414062</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1939.285400390625</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1845.683837890625</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1768.060546875</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1676.175170898438</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1604.557373046875</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1552.092041015625</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1256.6396484375</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1174.369873046875</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1074.5791015625</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1074.620971679688</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1023.458923339844</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>954.4005737304688</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>818.0326538085938</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>881.9258422851562</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>808.859619140625</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>524.751708984375</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>730.1137084960938</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>689.6776123046875</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>660.0000610351562</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>645.7340087890625</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>642.2078857421875</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>642.7301025390625</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>709.4105224609375</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>774.186279296875</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>802.0573120117188</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>832.2860107421875</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>844.423095703125</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>866.107177734375</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>900.0667114257812</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>925.5476684570312</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>928.1265869140625</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>931.9443969726562</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>977.120849609375</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>989.7068481445312</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>986.3406982421875</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>986.5491943359375</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>959.5466918945312</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>816.9459838867188</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>675.0872802734375</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>640.6316528320312</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>679.0227661132812</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>710.8433837890625</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>658.0604858398438</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>651.2999877929688</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>649.2730712890625</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>636.8427124023438</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>631.5697631835938</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>600.818115234375</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>591.5369873046875</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>574.5831909179688</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>562.9328002929688</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>536.2555541992188</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>546.0623168945312</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>547.4937133789062</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>556.5123901367188</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>628.6170043945312</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>602.8994750976562</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>600.3536987304688</v>
+        <v>518.7930297851562</v>
       </c>
     </row>
   </sheetData>
